--- a/Template/日报模板.xlsx
+++ b/Template/日报模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19040"/>
+    <workbookView windowWidth="28800" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="273">
   <si>
     <t>账户</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>KISHIMOTO</t>
-  </si>
-  <si>
-    <t>BScoop458@s.lbk.one</t>
-  </si>
-  <si>
-    <t>PINU</t>
   </si>
   <si>
     <t>BScoop157@s.lbk.one</t>
@@ -847,10 +841,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -880,31 +874,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -932,6 +904,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -941,7 +927,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,33 +950,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,7 +966,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,6 +986,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1025,13 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,43 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1061,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,91 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,6 +1250,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1271,26 +1298,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,181 +1338,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,16 +1508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,25 +1830,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.16346153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="28.6923076923077" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6153846153846" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.7692307692308" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.4615384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.0769230769231" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7692307692308" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.4615384615385" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.46153846153846" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6634615384615" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.8365384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8365384615385" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8365384615385" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1913,23 +1898,23 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4">
-        <f>D2-C2</f>
+        <f t="shared" ref="E2:E65" si="0">D2-C2</f>
         <v>-10000</v>
       </c>
       <c r="F2" s="5">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F65" si="1">E2/C2</f>
         <v>-1</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="4">
-        <f>G2*E2</f>
+        <f t="shared" ref="H2:H65" si="2">G2*E2</f>
         <v>-10000</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(H2:H3)</f>
-        <v>-10268.1141617052</v>
+        <v>-10278.5801357704</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
@@ -1948,19 +1933,19 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4">
-        <f>D3-C3</f>
+        <f t="shared" si="0"/>
         <v>-298013000000</v>
       </c>
       <c r="F3" s="5">
-        <f>E3/C3</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G3" s="2">
-        <v>8.99672704563964e-10</v>
+        <v>9.34791890858297e-10</v>
       </c>
       <c r="H3" s="4">
-        <f>G3*E3</f>
-        <v>-268.114161705221</v>
+        <f t="shared" si="2"/>
+        <v>-278.580135770354</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1978,23 +1963,23 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4">
-        <f>D4-C4</f>
+        <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
       <c r="F4" s="5">
-        <f>E4/C4</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f>G4*E4</f>
+        <f t="shared" si="2"/>
         <v>-10000</v>
       </c>
       <c r="I4" s="2">
         <f>SUM(H4:H5)</f>
-        <v>-11530.8420330352</v>
+        <v>-11626.8488276728</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>13</v>
@@ -2013,19 +1998,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>-780874000000</v>
       </c>
       <c r="F5" s="5">
-        <f>E5/C5</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G5" s="2">
-        <v>1.96042131385494e-9</v>
+        <v>2.08336918334172e-9</v>
       </c>
       <c r="H5" s="4">
-        <f>G5*E5</f>
-        <v>-1530.84203303516</v>
+        <f t="shared" si="2"/>
+        <v>-1626.84882767278</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2043,23 +2028,23 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4">
-        <f t="shared" ref="E6:E61" si="0">D6-C6</f>
+        <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F61" si="1">E6/C6</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" ref="H6:H61" si="2">G6*E6</f>
+        <f t="shared" si="2"/>
         <v>-10000</v>
       </c>
       <c r="I6" s="2">
         <f>SUM(H6:H7)</f>
-        <v>-11972.9782590013</v>
+        <v>-13877.8205083558</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>13</v>
@@ -2086,11 +2071,11 @@
         <v>-1</v>
       </c>
       <c r="G7" s="2">
-        <v>7.87594062841076e-9</v>
+        <v>1.54798888188984e-8</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>-1972.97825900129</v>
+        <v>-3877.82050835577</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2124,7 +2109,7 @@
       </c>
       <c r="I8" s="2">
         <f>SUM(H8:H9)</f>
-        <v>-11120.0105293337</v>
+        <v>-11117.4490483718</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>13</v>
@@ -2151,11 +2136,11 @@
         <v>-1</v>
       </c>
       <c r="G9" s="2">
-        <v>4.18319787369361e-10</v>
+        <v>4.173715500357e-10</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="2"/>
-        <v>-1130.01052933369</v>
+        <v>-1127.44904837176</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2189,7 +2174,7 @@
       </c>
       <c r="I10" s="2">
         <f>SUM(H10:H11)</f>
-        <v>-10185.9754360475</v>
+        <v>-10117.3620638775</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
@@ -2216,11 +2201,11 @@
         <v>-1</v>
       </c>
       <c r="G11" s="2">
-        <v>3.32837178255154e-8</v>
+        <v>2.10040954899164e-8</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>-185.975436047493</v>
+        <v>-117.362063877547</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2254,7 +2239,7 @@
       </c>
       <c r="I12" s="2">
         <f>SUM(H12:H13)</f>
-        <v>-13360.762039816</v>
+        <v>-28746.3190158319</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>13</v>
@@ -2281,11 +2266,11 @@
         <v>-1</v>
       </c>
       <c r="G13" s="2">
-        <v>0.000324509751437413</v>
+        <v>0.00146943883136121</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="2"/>
-        <v>-4360.76203981596</v>
+        <v>-19746.3190158319</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2319,7 +2304,7 @@
       </c>
       <c r="I14" s="2">
         <f>SUM(H14:H15)</f>
-        <v>-9711.33259610229</v>
+        <v>-9709.9468419295</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
@@ -2346,11 +2331,11 @@
         <v>-1</v>
       </c>
       <c r="G15" s="2">
-        <v>4.48915109818776e-7</v>
+        <v>4.47897519736673e-7</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="2"/>
-        <v>-611.332596102294</v>
+        <v>-609.946841929504</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2384,7 +2369,7 @@
       </c>
       <c r="I16" s="2">
         <f>SUM(H16:H17)</f>
-        <v>-18705.767250795</v>
+        <v>-15656.7469196768</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>13</v>
@@ -2411,11 +2396,11 @@
         <v>-1</v>
       </c>
       <c r="G17" s="2">
-        <v>7.16383427938478e-12</v>
+        <v>4.91335002582749e-12</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="2"/>
-        <v>-9705.76725079504</v>
+        <v>-6656.74691967675</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2449,7 +2434,7 @@
       </c>
       <c r="I18" s="2">
         <f>SUM(H18:H19)</f>
-        <v>-9603.89724167584</v>
+        <v>-9603.66399665842</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>13</v>
@@ -2476,11 +2461,11 @@
         <v>-1</v>
       </c>
       <c r="G19" s="2">
-        <v>0.000138461126390289</v>
+        <v>0.000138147266005798</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="2"/>
-        <v>-102.897241675835</v>
+        <v>-102.663996658425</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2514,7 +2499,7 @@
       </c>
       <c r="I20" s="2">
         <f>SUM(H20:H21)</f>
-        <v>-12428.9967569625</v>
+        <v>-12280.5698061949</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>13</v>
@@ -2541,11 +2526,11 @@
         <v>-1</v>
       </c>
       <c r="G21" s="2">
-        <v>1.74283292185055e-9</v>
+        <v>1.6461972507737e-9</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="2"/>
-        <v>-2676.89325696254</v>
+        <v>-2528.46630619493</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2579,7 +2564,7 @@
       </c>
       <c r="I22" s="2">
         <f>SUM(H22:H23)</f>
-        <v>-16421.981372165</v>
+        <v>-15970.4918199445</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>13</v>
@@ -2606,11 +2591,11 @@
         <v>-1</v>
       </c>
       <c r="G23" s="2">
-        <v>1.10401165802532e-8</v>
+        <v>1.03200196855514e-8</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>-6921.98137216497</v>
+        <v>-6470.49181994455</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2644,7 +2629,7 @@
       </c>
       <c r="I24" s="2">
         <f>SUM(H24:H25)</f>
-        <v>-39641.6086397519</v>
+        <v>-39847.047610394</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>13</v>
@@ -2671,11 +2656,11 @@
         <v>-1</v>
       </c>
       <c r="G25" s="2">
-        <v>0.00668001393508372</v>
+        <v>0.00701136711353876</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="2"/>
-        <v>-4141.60863975191</v>
+        <v>-4347.04761039403</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2709,7 +2694,7 @@
       </c>
       <c r="I26" s="2">
         <f>SUM(H26:H27)</f>
-        <v>-9895.8307487218</v>
+        <v>-9940.38539854521</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>13</v>
@@ -2736,11 +2721,11 @@
         <v>-1</v>
       </c>
       <c r="G27" s="2">
-        <v>2.76804719385873e-6</v>
+        <v>3.07961817164482e-6</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="2"/>
-        <v>-395.830748721798</v>
+        <v>-440.385398545209</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2774,7 +2759,7 @@
       </c>
       <c r="I28" s="2">
         <f>SUM(H28:H29)</f>
-        <v>-11459.7980502432</v>
+        <v>-11455.3556266865</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>13</v>
@@ -2801,11 +2786,11 @@
         <v>-1</v>
       </c>
       <c r="G29" s="2">
-        <v>3.07821683284118e-7</v>
+        <v>3.07123920421797e-7</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="2"/>
-        <v>-1959.79805024324</v>
+        <v>-1955.35562668647</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -2904,7 +2889,7 @@
       </c>
       <c r="I32" s="2">
         <f>SUM(H32:H33)</f>
-        <v>-9515.25458715406</v>
+        <v>-9631.93686752642</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>13</v>
@@ -2931,11 +2916,11 @@
         <v>-1</v>
       </c>
       <c r="G33" s="2">
-        <v>0.00346695162592224</v>
+        <v>0.029985651710549</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="2"/>
-        <v>-15.2545871540579</v>
+        <v>-131.936867526415</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2969,7 +2954,7 @@
       </c>
       <c r="I34" s="2">
         <f>SUM(H34:H35)</f>
-        <v>-9646.4278993612</v>
+        <v>-9519.92125428386</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>13</v>
@@ -2996,11 +2981,11 @@
         <v>-1</v>
       </c>
       <c r="G35" s="2">
-        <v>0.00659882376571405</v>
+        <v>0.000897758192152173</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="2"/>
-        <v>-146.427899361195</v>
+        <v>-19.9212542838567</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -3034,7 +3019,7 @@
       </c>
       <c r="I36" s="2">
         <f>SUM(H36:H37)</f>
-        <v>-10035.4743467741</v>
+        <v>-9968.13331219893</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>13</v>
@@ -3061,11 +3046,11 @@
         <v>-1</v>
       </c>
       <c r="G37" s="2">
-        <v>0.002855863182795</v>
+        <v>0.00249671099839427</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="2"/>
-        <v>-535.474346774062</v>
+        <v>-468.133312198927</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -3099,7 +3084,7 @@
       </c>
       <c r="I38" s="2">
         <f>SUM(H38:H39)</f>
-        <v>-9523.72391610054</v>
+        <v>-9526.07023493386</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>13</v>
@@ -3126,11 +3111,11 @@
         <v>-1</v>
       </c>
       <c r="G39" s="2">
-        <v>0.000858442469986317</v>
+        <v>0.000943343281728909</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="2"/>
-        <v>-23.7239161005419</v>
+        <v>-26.0702349338601</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3164,7 +3149,7 @@
       </c>
       <c r="I40" s="2">
         <f>SUM(H40:H41)</f>
-        <v>-14732.0997816257</v>
+        <v>-14328.1777855772</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>13</v>
@@ -3191,11 +3176,11 @@
         <v>-1</v>
       </c>
       <c r="G41" s="2">
-        <v>7.97035792949834e-10</v>
+        <v>7.35504036705233e-10</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="2"/>
-        <v>-5232.09978162569</v>
+        <v>-4828.17778557716</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -3229,7 +3214,7 @@
       </c>
       <c r="I42" s="2">
         <f>SUM(H42:H43)</f>
-        <v>-9797.39860415568</v>
+        <v>-9796.72446808095</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>13</v>
@@ -3256,11 +3241,11 @@
         <v>-1</v>
       </c>
       <c r="G43" s="2">
-        <v>1.93330328288573e-12</v>
+        <v>1.92892091703675e-12</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="2"/>
-        <v>-297.398604155676</v>
+        <v>-296.724468080947</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -3294,7 +3279,7 @@
       </c>
       <c r="I44" s="2">
         <f>SUM(H44:H45)</f>
-        <v>-15620.390739124</v>
+        <v>-15105.9505252949</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>13</v>
@@ -3321,11 +3306,11 @@
         <v>-1</v>
       </c>
       <c r="G45" s="2">
-        <v>3.73014683442207e-5</v>
+        <v>3.41661496743728e-5</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="2"/>
-        <v>-6120.39073912399</v>
+        <v>-5605.95052529491</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -3339,12 +3324,12 @@
         <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>9500</v>
+        <v>14812.0723</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>-9500</v>
+        <v>-14812.0723</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
@@ -3355,17 +3340,17 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="2"/>
-        <v>-9500</v>
+        <v>-14812.0723</v>
       </c>
       <c r="I46" s="2">
         <f>SUM(H46:H47)</f>
-        <v>-10310.5115031306</v>
+        <v>-17575.7859818007</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3374,23 +3359,23 @@
         <v>62</v>
       </c>
       <c r="C47" s="2">
-        <v>127000000000</v>
+        <v>722181.6582</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4">
         <f t="shared" si="0"/>
-        <v>-127000000000</v>
+        <v>-722181.6582</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G47" s="2">
-        <v>6.38198033961139e-9</v>
+        <v>0.00382689542225307</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="2"/>
-        <v>-810.511503130646</v>
+        <v>-2763.71368180071</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -3404,12 +3389,12 @@
         <v>12</v>
       </c>
       <c r="C48" s="2">
-        <v>14812.0723</v>
+        <v>9500</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>-14812.0723</v>
+        <v>-9500</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="1"/>
@@ -3420,17 +3405,17 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" si="2"/>
-        <v>-14812.0723</v>
+        <v>-9500</v>
       </c>
       <c r="I48" s="2">
         <f>SUM(H48:H49)</f>
-        <v>-17644.4080669066</v>
+        <v>-9594.94823341971</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3439,23 +3424,23 @@
         <v>64</v>
       </c>
       <c r="C49" s="2">
-        <v>722181.6582</v>
+        <v>197900</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>-722181.6582</v>
+        <v>-197900</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G49" s="2">
-        <v>0.00392191595389738</v>
+        <v>0.000479778844970735</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" si="2"/>
-        <v>-2832.33576690664</v>
+        <v>-94.9482334197084</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -3489,13 +3474,13 @@
       </c>
       <c r="I50" s="2">
         <f>SUM(H50:H51)</f>
-        <v>-9595.16394879294</v>
+        <v>-10648.9048342204</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3504,23 +3489,24 @@
         <v>66</v>
       </c>
       <c r="C51" s="2">
-        <v>197900</v>
+        <f>90024000+500000000+250000000</f>
+        <v>840024000</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
-        <v>-197900</v>
+        <v>-840024000</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G51" s="2">
-        <v>0.000480868867068942</v>
+        <v>1.36770477298315e-6</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="2"/>
-        <v>-95.1639487929436</v>
+        <v>-1148.9048342204</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3554,13 +3540,13 @@
       </c>
       <c r="I52" s="2">
         <f>SUM(H52:H53)</f>
-        <v>-11060.865177584</v>
+        <v>-10699.5571302389</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3569,24 +3555,23 @@
         <v>68</v>
       </c>
       <c r="C53" s="2">
-        <f>90024000+500000000+250000000</f>
-        <v>840024000</v>
+        <v>1689569572301650</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
-        <v>-840024000</v>
+        <v>-1689569572301650</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G53" s="2">
-        <v>1.85811974132164e-6</v>
+        <v>7.09977943438459e-13</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="2"/>
-        <v>-1560.86517758397</v>
+        <v>-1199.55713023892</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -3620,7 +3605,7 @@
       </c>
       <c r="I54" s="2">
         <f>SUM(H54:H55)</f>
-        <v>-11304.4794759189</v>
+        <v>-10093.9490956825</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>13</v>
@@ -3635,23 +3620,23 @@
         <v>70</v>
       </c>
       <c r="C55" s="2">
-        <v>1689569572301650</v>
+        <v>522000000</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
-        <v>-1689569572301650</v>
+        <v>-522000000</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G55" s="2">
-        <v>1.06801134768351e-12</v>
+        <v>1.1378335166331e-6</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="2"/>
-        <v>-1804.47947591894</v>
+        <v>-593.949095682477</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -3685,7 +3670,7 @@
       </c>
       <c r="I56" s="2">
         <f>SUM(H56:H57)</f>
-        <v>-9605.44421996571</v>
+        <v>-9500.03192579868</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>13</v>
@@ -3700,23 +3685,23 @@
         <v>72</v>
       </c>
       <c r="C57" s="2">
-        <v>522000000</v>
+        <v>7149330000000</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
-        <v>-522000000</v>
+        <v>-7149330000000</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G57" s="2">
-        <v>2.02000421390256e-7</v>
+        <v>4.46556511993668e-15</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="2"/>
-        <v>-105.444219965714</v>
+        <v>-0.0319257986789169</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -3734,23 +3719,23 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4">
-        <f t="shared" ref="E58:E69" si="3">D58-C58</f>
+        <f t="shared" si="0"/>
         <v>-9500</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" ref="F58:F69" si="4">E58/C58</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" ref="H58:H69" si="5">G58*E58</f>
+        <f t="shared" si="2"/>
         <v>-9500</v>
       </c>
       <c r="I58" s="2">
         <f>SUM(H58:H59)</f>
-        <v>-9500.0062475699</v>
+        <v>-21416.3199966765</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>13</v>
@@ -3765,23 +3750,23 @@
         <v>74</v>
       </c>
       <c r="C59" s="2">
-        <v>7149330000000</v>
+        <v>275850</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4">
-        <f t="shared" si="3"/>
-        <v>-7149330000000</v>
+        <f t="shared" si="0"/>
+        <v>-275850</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G59" s="2">
-        <v>8.73867886249296e-16</v>
+        <v>0.0431985499245115</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.00624756989519868</v>
+        <f t="shared" si="2"/>
+        <v>-11916.3199966765</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -3799,29 +3784,29 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-9500</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-9500</v>
       </c>
       <c r="I60" s="2">
         <f>SUM(H60:H61)</f>
-        <v>-17912.3518331389</v>
+        <v>-9511.4831886691</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3830,23 +3815,23 @@
         <v>76</v>
       </c>
       <c r="C61" s="2">
-        <v>275850</v>
+        <v>9800</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4">
-        <f t="shared" si="3"/>
-        <v>-275850</v>
+        <f t="shared" si="0"/>
+        <v>-9800</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G61" s="2">
-        <v>0.0304961095999234</v>
+        <v>0.00117175394582602</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="5"/>
-        <v>-8412.35183313887</v>
+        <f t="shared" si="2"/>
+        <v>-11.483188669095</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -3864,29 +3849,29 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-9500</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-9500</v>
       </c>
       <c r="I62" s="2">
         <f>SUM(H62:H63)</f>
-        <v>-9529.61934171231</v>
+        <v>-9563.2966919133</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3895,23 +3880,23 @@
         <v>78</v>
       </c>
       <c r="C63" s="2">
-        <v>9800</v>
+        <v>301225.45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="4">
-        <f t="shared" si="3"/>
-        <v>-9800</v>
+        <f t="shared" si="0"/>
+        <v>-301225.45</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G63" s="2">
-        <v>0.00302238180737838</v>
+        <v>0.000210130624465169</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="5"/>
-        <v>-29.6193417123081</v>
+        <f t="shared" si="2"/>
+        <v>-63.2966919133015</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -3929,29 +3914,29 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E64:E127" si="3">D64-C64</f>
         <v>-9500</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F64:F127" si="4">E64/C64</f>
         <v>-1</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H64:H127" si="5">G64*E64</f>
         <v>-9500</v>
       </c>
       <c r="I64" s="2">
         <f>SUM(H64:H65)</f>
-        <v>-9563.44049732209</v>
+        <v>-9695.67588670316</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3960,23 +3945,23 @@
         <v>80</v>
       </c>
       <c r="C65" s="2">
-        <v>301225.45</v>
+        <v>10366</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="4">
         <f t="shared" si="3"/>
-        <v>-301225.45</v>
+        <v>-10366</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G65" s="2">
-        <v>0.000210608025723223</v>
+        <v>0.0188767013991088</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="5"/>
-        <v>-63.4404973220894</v>
+        <v>-195.675886703162</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -4010,7 +3995,7 @@
       </c>
       <c r="I66" s="2">
         <f>SUM(H66:H67)</f>
-        <v>-9960.71320736516</v>
+        <v>-19132.2757859954</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>13</v>
@@ -4025,23 +4010,23 @@
         <v>82</v>
       </c>
       <c r="C67" s="2">
-        <v>10366</v>
+        <v>160194753.0181</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4">
         <f t="shared" si="3"/>
-        <v>-10366</v>
+        <v>-160194753.0181</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G67" s="2">
-        <v>0.0444446466684507</v>
+        <v>6.01285348272741e-5</v>
       </c>
       <c r="H67" s="4">
         <f t="shared" si="5"/>
-        <v>-460.71320736516</v>
+        <v>-9632.2757859954</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -4055,12 +4040,12 @@
         <v>12</v>
       </c>
       <c r="C68" s="2">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4">
         <f t="shared" si="3"/>
-        <v>-9500</v>
+        <v>-8700</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="4"/>
@@ -4071,17 +4056,17 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" si="5"/>
-        <v>-9500</v>
+        <v>-8700</v>
       </c>
       <c r="I68" s="2">
         <f>SUM(H68:H69)</f>
-        <v>-19570.7097324827</v>
+        <v>-2800541.95259041</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4090,23 +4075,23 @@
         <v>84</v>
       </c>
       <c r="C69" s="2">
-        <v>160194753.0181</v>
+        <v>696141564</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4">
         <f t="shared" si="3"/>
-        <v>-160194753.0181</v>
+        <v>-696141564</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G69" s="2">
-        <v>6.28654156440746e-5</v>
+        <v>0.00401045146126401</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" si="5"/>
-        <v>-10070.7097324827</v>
+        <v>-2791841.95259041</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -4120,27 +4105,27 @@
         <v>12</v>
       </c>
       <c r="C70" s="2">
-        <v>8700</v>
+        <v>9500</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="4">
-        <f t="shared" ref="E70:E125" si="6">D70-C70</f>
-        <v>-8700</v>
+        <f t="shared" si="3"/>
+        <v>-9500</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" ref="F70:F125" si="7">E70/C70</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" ref="H70:H125" si="8">G70*E70</f>
-        <v>-8700</v>
+        <f t="shared" si="5"/>
+        <v>-9500</v>
       </c>
       <c r="I70" s="2">
         <f>SUM(H70:H71)</f>
-        <v>-4315491.49868537</v>
+        <v>-9500</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>13</v>
@@ -4155,23 +4140,23 @@
         <v>86</v>
       </c>
       <c r="C71" s="2">
-        <v>696141564</v>
+        <v>9024463235304440</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4">
-        <f t="shared" si="6"/>
-        <v>-696141564</v>
+        <f t="shared" si="3"/>
+        <v>-9024463235304440</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G71" s="2">
-        <v>0.00618666047454303</v>
+        <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="8"/>
-        <v>-4306791.49868537</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4189,23 +4174,23 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I72" s="2">
         <f>SUM(H72:H73)</f>
-        <v>-10309.9937068941</v>
+        <v>-9629.03676584638</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>13</v>
@@ -4220,23 +4205,23 @@
         <v>88</v>
       </c>
       <c r="C73" s="2">
-        <v>9024463235304440</v>
+        <v>1121</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4">
-        <f t="shared" si="6"/>
-        <v>-9024463235304440</v>
+        <f t="shared" si="3"/>
+        <v>-1121</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G73" s="2">
-        <v>8.97553334502296e-14</v>
+        <v>0.115108622521304</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="8"/>
-        <v>-809.993706894088</v>
+        <f t="shared" si="5"/>
+        <v>-129.036765846382</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -4254,29 +4239,29 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I74" s="2">
         <f>SUM(H74:H75)</f>
-        <v>-9614.37569292343</v>
+        <v>-24236.2049666877</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4285,23 +4270,23 @@
         <v>90</v>
       </c>
       <c r="C75" s="2">
-        <v>1121</v>
+        <v>39000000</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4">
-        <f t="shared" si="6"/>
-        <v>-1121</v>
+        <f t="shared" si="3"/>
+        <v>-39000000</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G75" s="2">
-        <v>0.102030056131519</v>
+        <v>0.000377851409402248</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="8"/>
-        <v>-114.375692923433</v>
+        <f t="shared" si="5"/>
+        <v>-14736.2049666877</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -4319,23 +4304,23 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I76" s="2">
         <f>SUM(H76:H77)</f>
-        <v>-24269.684535922</v>
+        <v>-9962.85763392198</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>13</v>
@@ -4350,23 +4335,23 @@
         <v>92</v>
       </c>
       <c r="C77" s="2">
-        <v>39000000</v>
+        <v>831680000000</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="4">
-        <f t="shared" si="6"/>
-        <v>-39000000</v>
+        <f t="shared" si="3"/>
+        <v>-831680000000</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G77" s="2">
-        <v>0.000378709859895437</v>
+        <v>5.56533322818845e-10</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="8"/>
-        <v>-14769.684535922</v>
+        <f t="shared" si="5"/>
+        <v>-462.857633921977</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4384,23 +4369,23 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I78" s="2">
         <f>SUM(H78:H79)</f>
-        <v>-9963.90921227852</v>
+        <v>-9583.38212847384</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>13</v>
@@ -4415,23 +4400,23 @@
         <v>94</v>
       </c>
       <c r="C79" s="2">
-        <v>831680000000</v>
+        <v>42500</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4">
-        <f t="shared" si="6"/>
-        <v>-831680000000</v>
+        <f t="shared" si="3"/>
+        <v>-42500</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G79" s="2">
-        <v>5.57797725421461e-10</v>
+        <v>0.00196193243467868</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="8"/>
-        <v>-463.909212278521</v>
+        <f t="shared" si="5"/>
+        <v>-83.3821284738439</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -4449,23 +4434,23 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I80" s="2">
         <f>SUM(H80:H81)</f>
-        <v>-9790.94364936644</v>
+        <v>-15531.3284589216</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>13</v>
@@ -4480,23 +4465,24 @@
         <v>96</v>
       </c>
       <c r="C81" s="2">
-        <v>42500</v>
+        <f>4167520000+3840000000+2000000000</f>
+        <v>10007520000</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4">
-        <f t="shared" si="6"/>
-        <v>-42500</v>
+        <f t="shared" si="3"/>
+        <v>-10007520000</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G81" s="2">
-        <v>0.00684573292626912</v>
+        <v>6.02679630809792e-7</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="8"/>
-        <v>-290.943649366438</v>
+        <f t="shared" si="5"/>
+        <v>-6031.32845892161</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -4514,29 +4500,29 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I82" s="2">
         <f>SUM(H82:H83)</f>
-        <v>-12762.7532945988</v>
+        <v>-10033.8799391011</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4545,24 +4531,23 @@
         <v>98</v>
       </c>
       <c r="C83" s="2">
-        <f>4167520000+3840000000</f>
-        <v>8007520000</v>
+        <v>2460000000</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4">
-        <f t="shared" si="6"/>
-        <v>-8007520000</v>
+        <f t="shared" si="3"/>
+        <v>-2460000000</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G83" s="2">
-        <v>4.0746114834541e-7</v>
+        <v>2.17024365488265e-7</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="8"/>
-        <v>-3262.75329459884</v>
+        <f t="shared" si="5"/>
+        <v>-533.879939101132</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -4580,23 +4565,23 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I84" s="2">
         <f>SUM(H84:H85)</f>
-        <v>-9966.17097247275</v>
+        <v>-9734.4787395838</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>13</v>
@@ -4611,23 +4596,23 @@
         <v>100</v>
       </c>
       <c r="C85" s="2">
-        <v>2460000000</v>
+        <v>1473471400000000</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="4">
-        <f t="shared" si="6"/>
-        <v>-2460000000</v>
+        <f t="shared" si="3"/>
+        <v>-1473471400000000</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G85" s="2">
-        <v>1.89500395314127e-7</v>
+        <v>1.59133553310775e-13</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="8"/>
-        <v>-466.170972472752</v>
+        <f t="shared" si="5"/>
+        <v>-234.478739583802</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -4645,29 +4630,29 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I86" s="2">
         <f>SUM(H86:H87)</f>
-        <v>-9820.89371744428</v>
+        <v>-9578.30558949736</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4676,23 +4661,23 @@
         <v>102</v>
       </c>
       <c r="C87" s="2">
-        <v>1473471400000000</v>
+        <v>865000</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="4">
-        <f t="shared" si="6"/>
-        <v>-1473471400000000</v>
+        <f t="shared" si="3"/>
+        <v>-865000</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G87" s="2">
-        <v>2.17780757362702e-13</v>
+        <v>9.05266930605357e-5</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="8"/>
-        <v>-320.893717444281</v>
+        <f t="shared" si="5"/>
+        <v>-78.3055894973634</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -4710,29 +4695,29 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I88" s="2">
         <f>SUM(H88:H89)</f>
-        <v>-9568.18847661852</v>
+        <v>-9760.49237531476</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4741,23 +4726,23 @@
         <v>104</v>
       </c>
       <c r="C89" s="2">
-        <v>865000</v>
+        <v>954913007456.5</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="4">
-        <f t="shared" si="6"/>
-        <v>-865000</v>
+        <f t="shared" si="3"/>
+        <v>-954913007456.5</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G89" s="2">
-        <v>7.88306088075382e-5</v>
+        <v>2.72791734200588e-10</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="8"/>
-        <v>-68.1884766185205</v>
+        <f t="shared" si="5"/>
+        <v>-260.492375314758</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -4775,29 +4760,29 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I90" s="2">
         <f>SUM(H90:H91)</f>
-        <v>-9876.53726594498</v>
+        <v>-11335.7981452563</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4806,23 +4791,23 @@
         <v>106</v>
       </c>
       <c r="C91" s="2">
-        <v>954913007456.5</v>
+        <v>615770166997586</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="4">
-        <f t="shared" si="6"/>
-        <v>-954913007456.5</v>
+        <f t="shared" si="3"/>
+        <v>-615770166997586</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G91" s="2">
-        <v>3.94315778510463e-10</v>
+        <v>2.981304135287e-12</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="8"/>
-        <v>-376.537265944977</v>
+        <f t="shared" si="5"/>
+        <v>-1835.79814525627</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -4840,29 +4825,29 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I92" s="2">
         <f>SUM(H92:H93)</f>
-        <v>-10158.1064543585</v>
+        <v>-9500</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4871,23 +4856,23 @@
         <v>108</v>
       </c>
       <c r="C93" s="2">
-        <v>615770166997586</v>
+        <v>53056</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="4">
-        <f t="shared" si="6"/>
-        <v>-615770166997586</v>
+        <f t="shared" si="3"/>
+        <v>-53056</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G93" s="2">
-        <v>1.06875339149242e-12</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="8"/>
-        <v>-658.106454358524</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -4905,29 +4890,29 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I94" s="2">
         <f>SUM(H94:H95)</f>
-        <v>-9500</v>
+        <v>-9506.44460126346</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4936,23 +4921,23 @@
         <v>110</v>
       </c>
       <c r="C95" s="2">
-        <v>53056</v>
+        <v>4060000</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="4">
-        <f t="shared" si="6"/>
-        <v>-53056</v>
+        <f t="shared" si="3"/>
+        <v>-4060000</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>1.58734021267378e-6</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-6.44460126345555</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -4970,29 +4955,29 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I96" s="2">
         <f>SUM(H96:H97)</f>
-        <v>-9506.45924292151</v>
+        <v>-9739.21562733812</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5001,23 +4986,23 @@
         <v>112</v>
       </c>
       <c r="C97" s="2">
-        <v>4060000</v>
+        <v>77500</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="4">
-        <f t="shared" si="6"/>
-        <v>-4060000</v>
+        <f t="shared" si="3"/>
+        <v>-77500</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G97" s="2">
-        <v>1.59094653239238e-6</v>
+        <v>0.00308665325597567</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="8"/>
-        <v>-6.45924292151306</v>
+        <f t="shared" si="5"/>
+        <v>-239.215627338114</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5035,23 +5020,23 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I98" s="2">
         <f>SUM(H98:H99)</f>
-        <v>-9671.14831565952</v>
+        <v>-9793.01543908509</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>13</v>
@@ -5066,23 +5051,23 @@
         <v>114</v>
       </c>
       <c r="C99" s="2">
-        <v>77500</v>
+        <v>2000000000000</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4">
-        <f t="shared" si="6"/>
-        <v>-77500</v>
+        <f t="shared" si="3"/>
+        <v>-2000000000000</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G99" s="2">
-        <v>0.00220836536334862</v>
+        <v>1.46507719542544e-10</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="8"/>
-        <v>-171.148315659518</v>
+        <f t="shared" si="5"/>
+        <v>-293.015439085088</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5100,29 +5085,29 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I100" s="2">
         <f>SUM(H100:H101)</f>
-        <v>-9793.6811485199</v>
+        <v>-11341.1610280732</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5131,23 +5116,23 @@
         <v>116</v>
       </c>
       <c r="C101" s="2">
-        <v>2000000000000</v>
+        <v>2959233495790.87</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4">
-        <f t="shared" si="6"/>
-        <v>-2000000000000</v>
+        <f t="shared" si="3"/>
+        <v>-2959233495790.87</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G101" s="2">
-        <v>1.46840574259948e-10</v>
+        <v>6.22174975611768e-10</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="8"/>
-        <v>-293.681148519896</v>
+        <f t="shared" si="5"/>
+        <v>-1841.16102807321</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5165,29 +5150,29 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I102" s="2">
         <f>SUM(H102:H103)</f>
-        <v>-10379.450339099</v>
+        <v>-11253.2729965421</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5196,23 +5181,23 @@
         <v>118</v>
       </c>
       <c r="C103" s="2">
-        <v>2959233495790.87</v>
+        <v>6650</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4">
-        <f t="shared" si="6"/>
-        <v>-2959233495790.87</v>
+        <f t="shared" si="3"/>
+        <v>-6650</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G103" s="2">
-        <v>2.97188559250199e-10</v>
+        <v>0.263650074667991</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="8"/>
-        <v>-879.450339099019</v>
+        <f t="shared" si="5"/>
+        <v>-1753.27299654214</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -5230,29 +5215,29 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I104" s="2">
         <f>SUM(H104:H105)</f>
-        <v>-11155.5192230583</v>
+        <v>-10829.5452811407</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5261,23 +5246,23 @@
         <v>120</v>
       </c>
       <c r="C105" s="2">
-        <v>6650</v>
+        <v>248250</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4">
-        <f t="shared" si="6"/>
-        <v>-6650</v>
+        <f t="shared" si="3"/>
+        <v>-248250</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G105" s="2">
-        <v>0.248950259106509</v>
+        <v>0.00535567082030483</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="8"/>
-        <v>-1655.51922305828</v>
+        <f t="shared" si="5"/>
+        <v>-1329.54528114067</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -5295,23 +5280,23 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I106" s="2">
         <f>SUM(H106:H107)</f>
-        <v>-11502.6996872897</v>
+        <v>-13009.7115904208</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>13</v>
@@ -5326,23 +5311,23 @@
         <v>122</v>
       </c>
       <c r="C107" s="2">
-        <v>248250</v>
+        <v>1037127</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4">
-        <f t="shared" si="6"/>
-        <v>-248250</v>
+        <f t="shared" si="3"/>
+        <v>-1037127</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G107" s="2">
-        <v>0.00806726963661522</v>
+        <v>0.0033840711797309</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="8"/>
-        <v>-2002.69968728973</v>
+        <f t="shared" si="5"/>
+        <v>-3509.71159042077</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -5356,33 +5341,33 @@
         <v>12</v>
       </c>
       <c r="C108" s="2">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4">
-        <f t="shared" si="6"/>
-        <v>-9500</v>
+        <f t="shared" si="3"/>
+        <v>-10000</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="8"/>
-        <v>-9500</v>
+        <f t="shared" si="5"/>
+        <v>-10000</v>
       </c>
       <c r="I108" s="2">
         <f>SUM(H108:H109)</f>
-        <v>-12809.3527036223</v>
+        <v>-15090.0693839289</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5391,23 +5376,23 @@
         <v>124</v>
       </c>
       <c r="C109" s="2">
-        <v>1037127</v>
+        <v>2000</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4">
-        <f t="shared" si="6"/>
-        <v>-1037127</v>
+        <f t="shared" si="3"/>
+        <v>-2000</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G109" s="2">
-        <v>0.00319088472638578</v>
+        <v>2.54503469196443</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="8"/>
-        <v>-3309.3527036223</v>
+        <f t="shared" si="5"/>
+        <v>-5090.06938392886</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -5421,33 +5406,33 @@
         <v>12</v>
       </c>
       <c r="C110" s="2">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4">
-        <f t="shared" si="6"/>
-        <v>-10000</v>
+        <f t="shared" si="3"/>
+        <v>-9500</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="8"/>
-        <v>-10000</v>
+        <f t="shared" si="5"/>
+        <v>-9500</v>
       </c>
       <c r="I110" s="2">
         <f>SUM(H110:H111)</f>
-        <v>-19239.4169265693</v>
+        <v>-9667.63925313221</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5456,23 +5441,23 @@
         <v>126</v>
       </c>
       <c r="C111" s="2">
-        <v>2000</v>
+        <v>62239</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4">
-        <f t="shared" si="6"/>
-        <v>-2000</v>
+        <f t="shared" si="3"/>
+        <v>-62239</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G111" s="2">
-        <v>4.61970846328463</v>
+        <v>0.00269347600591609</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="8"/>
-        <v>-9239.41692656926</v>
+        <f t="shared" si="5"/>
+        <v>-167.639253132212</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -5490,23 +5475,23 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I112" s="2">
         <f>SUM(H112:H113)</f>
-        <v>-9776.21633453619</v>
+        <v>-10083.1051971325</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>13</v>
@@ -5521,23 +5506,23 @@
         <v>128</v>
       </c>
       <c r="C113" s="2">
-        <v>62239</v>
+        <v>48932154377968.4</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4">
-        <f t="shared" si="6"/>
-        <v>-62239</v>
+        <f t="shared" si="3"/>
+        <v>-48932154377968.4</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G113" s="2">
-        <v>0.00443799441726548</v>
+        <v>1.19166058503864e-11</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="8"/>
-        <v>-276.216334536186</v>
+        <f t="shared" si="5"/>
+        <v>-583.105197132509</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -5555,29 +5540,29 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I114" s="2">
         <f>SUM(H114:H115)</f>
-        <v>-9793.53944699705</v>
+        <v>-9916.18661106068</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5586,23 +5571,23 @@
         <v>130</v>
       </c>
       <c r="C115" s="2">
-        <v>48932154377968.4</v>
+        <v>9500</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4">
-        <f t="shared" si="6"/>
-        <v>-48932154377968.4</v>
+        <f t="shared" si="3"/>
+        <v>-9500</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G115" s="2">
-        <v>5.99890707303948e-12</v>
+        <v>0.043809116953756</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="8"/>
-        <v>-293.539446997054</v>
+        <f t="shared" si="5"/>
+        <v>-416.186611060682</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -5620,23 +5605,23 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I116" s="2">
         <f>SUM(H116:H117)</f>
-        <v>-9757.54938115666</v>
+        <v>-9676.68251080002</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>13</v>
@@ -5651,23 +5636,23 @@
         <v>132</v>
       </c>
       <c r="C117" s="2">
-        <v>9500</v>
+        <v>280731756435.614</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4">
-        <f t="shared" si="6"/>
-        <v>-9500</v>
+        <f t="shared" si="3"/>
+        <v>-280731756435.614</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G117" s="2">
-        <v>0.0271104611743853</v>
+        <v>6.29364176833137e-10</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="8"/>
-        <v>-257.54938115666</v>
+        <f t="shared" si="5"/>
+        <v>-176.682510800021</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -5685,23 +5670,23 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I118" s="2">
         <f>SUM(H118:H119)</f>
-        <v>-9666.61917288615</v>
+        <v>-13815.4712140219</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>13</v>
@@ -5716,23 +5701,23 @@
         <v>134</v>
       </c>
       <c r="C119" s="2">
-        <v>280731756435.614</v>
+        <v>87000</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4">
-        <f t="shared" si="6"/>
-        <v>-280731756435.614</v>
+        <f t="shared" si="3"/>
+        <v>-87000</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G119" s="2">
-        <v>5.93517366904532e-10</v>
+        <v>0.0496031174025508</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="8"/>
-        <v>-166.61917288615</v>
+        <f t="shared" si="5"/>
+        <v>-4315.47121402192</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -5750,23 +5735,23 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I120" s="2">
         <f>SUM(H120:H121)</f>
-        <v>-11813.0063310169</v>
+        <v>-9521.45138270435</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>13</v>
@@ -5781,23 +5766,23 @@
         <v>136</v>
       </c>
       <c r="C121" s="2">
-        <v>87000</v>
+        <v>66400</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4">
-        <f t="shared" si="6"/>
-        <v>-87000</v>
+        <f t="shared" si="3"/>
+        <v>-66400</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G121" s="2">
-        <v>0.026586279666861</v>
+        <v>0.000323062992535381</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="8"/>
-        <v>-2313.00633101691</v>
+        <f t="shared" si="5"/>
+        <v>-21.4513827043493</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -5815,23 +5800,23 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I122" s="2">
         <f>SUM(H122:H123)</f>
-        <v>-9577.68816206419</v>
+        <v>-9773.45224196797</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>13</v>
@@ -5846,23 +5831,23 @@
         <v>138</v>
       </c>
       <c r="C123" s="2">
-        <v>66400</v>
+        <v>52000</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4">
-        <f t="shared" si="6"/>
-        <v>-66400</v>
+        <f t="shared" si="3"/>
+        <v>-52000</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G123" s="2">
-        <v>0.00117000244072574</v>
+        <v>0.00525869696092243</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="8"/>
-        <v>-77.6881620641891</v>
+        <f t="shared" si="5"/>
+        <v>-273.452241967966</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -5880,23 +5865,23 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I124" s="2">
         <f>SUM(H124:H125)</f>
-        <v>-9790.97081421459</v>
+        <v>-10049.3931826535</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>13</v>
@@ -5911,23 +5896,23 @@
         <v>140</v>
       </c>
       <c r="C125" s="2">
-        <v>52000</v>
+        <v>3040</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4">
-        <f t="shared" si="6"/>
-        <v>-52000</v>
+        <f t="shared" si="3"/>
+        <v>-3040</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G125" s="2">
-        <v>0.00559559258104981</v>
+        <v>0.180721441662324</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="8"/>
-        <v>-290.97081421459</v>
+        <f t="shared" si="5"/>
+        <v>-549.393182653465</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -5945,29 +5930,29 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4">
-        <f t="shared" ref="E126:E175" si="9">D126-C126</f>
+        <f t="shared" si="3"/>
         <v>-9500</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" ref="F126:F175" si="10">E126/C126</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" ref="H126:H175" si="11">G126*E126</f>
+        <f t="shared" si="5"/>
         <v>-9500</v>
       </c>
       <c r="I126" s="2">
         <f>SUM(H126:H127)</f>
-        <v>-9887.24882259271</v>
+        <v>-9500.00001618485</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5976,23 +5961,23 @@
         <v>142</v>
       </c>
       <c r="C127" s="2">
-        <v>3040</v>
+        <v>5010123</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4">
-        <f t="shared" si="9"/>
-        <v>-3040</v>
+        <f t="shared" si="3"/>
+        <v>-5010123</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="G127" s="2">
-        <v>0.127384481116023</v>
+        <v>3.23042988634906e-12</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="11"/>
-        <v>-387.24882259271</v>
+        <f t="shared" si="5"/>
+        <v>-1.61848510734848e-5</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -6010,29 +5995,29 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E128:E191" si="6">D128-C128</f>
         <v>-9500</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F128:F191" si="7">E128/C128</f>
         <v>-1</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H128:H191" si="8">G128*E128</f>
         <v>-9500</v>
       </c>
       <c r="I128" s="2">
         <f>SUM(H128:H129)</f>
-        <v>-9500.00000033555</v>
+        <v>-9839.97449002884</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6041,23 +6026,23 @@
         <v>144</v>
       </c>
       <c r="C129" s="2">
-        <v>5010123</v>
+        <v>77800000</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4">
-        <f t="shared" si="9"/>
-        <v>-5010123</v>
+        <f t="shared" si="6"/>
+        <v>-77800000</v>
       </c>
       <c r="F129" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G129" s="2">
-        <v>6.69754373273133e-14</v>
+        <v>4.36985205692594e-6</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="11"/>
-        <v>-3.35555178988631e-7</v>
+        <f t="shared" si="8"/>
+        <v>-339.974490028838</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -6075,29 +6060,29 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I130" s="2">
         <f>SUM(H130:H131)</f>
-        <v>-9773.36885559088</v>
+        <v>-9554.78163414816</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6106,23 +6091,23 @@
         <v>146</v>
       </c>
       <c r="C131" s="2">
-        <v>77800000</v>
+        <v>38100</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4">
-        <f t="shared" si="9"/>
-        <v>-77800000</v>
+        <f t="shared" si="6"/>
+        <v>-38100</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G131" s="2">
-        <v>3.5137385037388e-6</v>
+        <v>0.00143783816661826</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="11"/>
-        <v>-273.368855590879</v>
+        <f t="shared" si="8"/>
+        <v>-54.7816341481558</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -6140,29 +6125,29 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G132" s="2">
         <v>1</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I132" s="2">
         <f>SUM(H132:H133)</f>
-        <v>-9554.79081256874</v>
+        <v>-11208.8801709916</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6171,23 +6156,23 @@
         <v>148</v>
       </c>
       <c r="C133" s="2">
-        <v>38100</v>
+        <v>760000000000</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="4">
-        <f t="shared" si="9"/>
-        <v>-38100</v>
+        <f t="shared" si="6"/>
+        <v>-760000000000</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G133" s="2">
-        <v>0.00143807907004579</v>
+        <v>2.24852654077843e-9</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="11"/>
-        <v>-54.7908125687446</v>
+        <f t="shared" si="8"/>
+        <v>-1708.8801709916</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -6205,23 +6190,23 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I134" s="2">
         <f>SUM(H134:H135)</f>
-        <v>-11172.8500108522</v>
+        <v>-10868.2538623935</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>13</v>
@@ -6236,23 +6221,23 @@
         <v>150</v>
       </c>
       <c r="C135" s="2">
-        <v>760000000000</v>
+        <v>14209900</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="4">
-        <f t="shared" si="9"/>
-        <v>-760000000000</v>
+        <f t="shared" si="6"/>
+        <v>-14209900</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G135" s="2">
-        <v>2.20111843533189e-9</v>
+        <v>9.62887748959167e-5</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="11"/>
-        <v>-1672.85001085224</v>
+        <f t="shared" si="8"/>
+        <v>-1368.25386239349</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -6270,23 +6255,23 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G136" s="2">
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I136" s="2">
         <f>SUM(H136:H137)</f>
-        <v>-10886.3207359843</v>
+        <v>-9635.62963872216</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>13</v>
@@ -6301,23 +6286,23 @@
         <v>152</v>
       </c>
       <c r="C137" s="2">
-        <v>14209900</v>
+        <v>25700</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="4">
-        <f t="shared" si="9"/>
-        <v>-14209900</v>
+        <f t="shared" si="6"/>
+        <v>-25700</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G137" s="2">
-        <v>9.75602035189773e-5</v>
+        <v>0.00527741784911112</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="11"/>
-        <v>-1386.32073598432</v>
+        <f t="shared" si="8"/>
+        <v>-135.629638722156</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6335,23 +6320,23 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I138" s="2">
         <f>SUM(H138:H139)</f>
-        <v>-9692.35949363026</v>
+        <v>-17710.6277833939</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>13</v>
@@ -6366,23 +6351,23 @@
         <v>154</v>
       </c>
       <c r="C139" s="2">
-        <v>25700</v>
+        <v>2200420</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="4">
-        <f t="shared" si="9"/>
-        <v>-25700</v>
+        <f t="shared" si="6"/>
+        <v>-2200420</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G139" s="2">
-        <v>0.00748480519962105</v>
+        <v>0.00373139118140806</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="11"/>
-        <v>-192.359493630261</v>
+        <f t="shared" si="8"/>
+        <v>-8210.62778339393</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6400,29 +6385,29 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I140" s="2">
         <f>SUM(H140:H141)</f>
-        <v>-16395.3220308558</v>
+        <v>-11104.7128954296</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6431,23 +6416,23 @@
         <v>156</v>
       </c>
       <c r="C141" s="2">
-        <v>2200420</v>
+        <v>21000000</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="4">
-        <f t="shared" si="9"/>
-        <v>-2200420</v>
+        <f t="shared" si="6"/>
+        <v>-21000000</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G141" s="2">
-        <v>0.00313363904657103</v>
+        <v>7.64148997823625e-5</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="11"/>
-        <v>-6895.32203085583</v>
+        <f t="shared" si="8"/>
+        <v>-1604.71289542961</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -6465,23 +6450,23 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I142" s="2">
         <f>SUM(H142:H143)</f>
-        <v>-10379.9018355509</v>
+        <v>-9500</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>13</v>
@@ -6496,23 +6481,23 @@
         <v>158</v>
       </c>
       <c r="C143" s="2">
-        <v>21000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="4">
-        <f t="shared" si="9"/>
-        <v>-21000000</v>
+        <f t="shared" si="6"/>
+        <v>-24000000000</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G143" s="2">
-        <v>4.19000874071868e-5</v>
+        <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="11"/>
-        <v>-879.901835550923</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -6530,23 +6515,23 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I144" s="2">
         <f>SUM(H144:H145)</f>
-        <v>-9500</v>
+        <v>-11440.4412789012</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>13</v>
@@ -6561,23 +6546,23 @@
         <v>160</v>
       </c>
       <c r="C145" s="2">
-        <v>24000000000</v>
+        <v>14410000000</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="4">
-        <f t="shared" si="9"/>
-        <v>-24000000000</v>
+        <f t="shared" si="6"/>
+        <v>-14410000000</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G145" s="2">
-        <v>0</v>
+        <v>1.34659353150671e-7</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1940.44127890117</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -6595,29 +6580,29 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I146" s="2">
         <f>SUM(H146:H147)</f>
-        <v>-9500.37738509466</v>
+        <v>-26237.9607017812</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6626,23 +6611,23 @@
         <v>162</v>
       </c>
       <c r="C147" s="2">
-        <v>14410000000</v>
+        <v>13306000000000</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="4">
-        <f t="shared" si="9"/>
-        <v>-14410000000</v>
+        <f t="shared" si="6"/>
+        <v>-13306000000000</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G147" s="2">
-        <v>2.61891113576881e-11</v>
+        <v>1.25792580052466e-9</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="11"/>
-        <v>-0.377385094664285</v>
+        <f t="shared" si="8"/>
+        <v>-16737.9607017812</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -6660,54 +6645,54 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I148" s="2">
         <f>SUM(H148:H149)</f>
-        <v>-20039.2035560912</v>
+        <v>-9759.87158463161</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
       <c r="B149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" s="2">
-        <v>13306000000000</v>
+        <v>76200</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="4">
-        <f t="shared" si="9"/>
-        <v>-13306000000000</v>
+        <f t="shared" si="6"/>
+        <v>-76200</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G149" s="2">
-        <v>7.92063997902541e-10</v>
+        <v>0.00341038824975867</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="11"/>
-        <v>-10539.2035560912</v>
+        <f t="shared" si="8"/>
+        <v>-259.87158463161</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -6715,7 +6700,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>12</v>
@@ -6725,29 +6710,29 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I150" s="2">
         <f>SUM(H150:H151)</f>
-        <v>-9878.44948119623</v>
+        <v>-11097.9924662876</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6756,23 +6741,23 @@
         <v>167</v>
       </c>
       <c r="C151" s="2">
-        <v>76200</v>
+        <v>6437089049</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4">
-        <f t="shared" si="9"/>
-        <v>-76200</v>
+        <f t="shared" si="6"/>
+        <v>-6437089049</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G151" s="2">
-        <v>0.0049665286246225</v>
+        <v>2.48247686822947e-7</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="11"/>
-        <v>-378.449481196235</v>
+        <f t="shared" si="8"/>
+        <v>-1597.99246628757</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -6790,29 +6775,29 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G152" s="2">
         <v>1</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I152" s="2">
         <f>SUM(H152:H153)</f>
-        <v>-11188.5164230294</v>
+        <v>-9955.70965668534</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6821,23 +6806,23 @@
         <v>169</v>
       </c>
       <c r="C153" s="2">
-        <v>6437089049</v>
+        <v>49524000000</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4">
-        <f t="shared" si="9"/>
-        <v>-6437089049</v>
+        <f t="shared" si="6"/>
+        <v>-49524000000</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G153" s="2">
-        <v>2.62310558417974e-7</v>
+        <v>9.20179421463004e-9</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="11"/>
-        <v>-1688.51642302942</v>
+        <f t="shared" si="8"/>
+        <v>-455.709656685338</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -6855,23 +6840,23 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G154" s="2">
         <v>1</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I154" s="2">
         <f>SUM(H154:H155)</f>
-        <v>-10010.0982641089</v>
+        <v>-9765.9230032271</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>13</v>
@@ -6886,23 +6871,23 @@
         <v>171</v>
       </c>
       <c r="C155" s="2">
-        <v>49524000000</v>
+        <v>3420000</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="4">
-        <f t="shared" si="9"/>
-        <v>-49524000000</v>
+        <f t="shared" si="6"/>
+        <v>-3420000</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G155" s="2">
-        <v>1.03000214867309e-8</v>
+        <v>7.77552641014927e-5</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="11"/>
-        <v>-510.098264108861</v>
+        <f t="shared" si="8"/>
+        <v>-265.923003227105</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -6920,29 +6905,29 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G156" s="2">
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I156" s="2">
         <f>SUM(H156:H157)</f>
-        <v>-9936.43374292689</v>
+        <v>-32374.6095867616</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6951,23 +6936,23 @@
         <v>173</v>
       </c>
       <c r="C157" s="2">
-        <v>3420000</v>
+        <v>165844200000</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="4">
-        <f t="shared" si="9"/>
-        <v>-3420000</v>
+        <f t="shared" si="6"/>
+        <v>-165844200000</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G157" s="2">
-        <v>0.000127612205534178</v>
+        <v>1.37928306125638e-7</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="11"/>
-        <v>-436.433742926889</v>
+        <f t="shared" si="8"/>
+        <v>-22874.6095867616</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -6985,29 +6970,29 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I158" s="2">
         <f>SUM(H158:H159)</f>
-        <v>-10312.6382752334</v>
+        <v>-9665.21159421388</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7016,23 +7001,23 @@
         <v>175</v>
       </c>
       <c r="C159" s="2">
-        <v>165844200000</v>
+        <v>2135</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="4">
-        <f t="shared" si="9"/>
-        <v>-165844200000</v>
+        <f t="shared" si="6"/>
+        <v>-2135</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G159" s="2">
-        <v>4.90001022184285e-9</v>
+        <v>0.0773824797254696</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="11"/>
-        <v>-812.63827523335</v>
+        <f t="shared" si="8"/>
+        <v>-165.211594213878</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -7050,29 +7035,29 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G160" s="2">
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I160" s="2">
         <f>SUM(H160:H161)</f>
-        <v>-9665.58694275302</v>
+        <v>-13455.6989958961</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7081,23 +7066,23 @@
         <v>177</v>
       </c>
       <c r="C161" s="2">
-        <v>2135</v>
+        <v>572000</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4">
-        <f t="shared" si="9"/>
-        <v>-2135</v>
+        <f t="shared" si="6"/>
+        <v>-572000</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G161" s="2">
-        <v>0.0775582870037583</v>
+        <v>0.00691555768513305</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="11"/>
-        <v>-165.586942753024</v>
+        <f t="shared" si="8"/>
+        <v>-3955.6989958961</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -7115,29 +7100,29 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I162" s="2">
         <f>SUM(H162:H163)</f>
-        <v>-10903.3643316054</v>
+        <v>-9833.266749914</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7146,23 +7131,23 @@
         <v>179</v>
       </c>
       <c r="C163" s="2">
-        <v>572000</v>
+        <v>185957662613</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="4">
-        <f t="shared" si="9"/>
-        <v>-572000</v>
+        <f t="shared" si="6"/>
+        <v>-185957662613</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G163" s="2">
-        <v>0.00245343414616329</v>
+        <v>1.79216465313164e-9</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="11"/>
-        <v>-1403.3643316054</v>
+        <f t="shared" si="8"/>
+        <v>-333.266749913997</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -7176,27 +7161,27 @@
         <v>12</v>
       </c>
       <c r="C164" s="2">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="4">
-        <f t="shared" si="9"/>
-        <v>-9500</v>
+        <f t="shared" si="6"/>
+        <v>-10000</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="11"/>
-        <v>-9500</v>
+        <f t="shared" si="8"/>
+        <v>-10000</v>
       </c>
       <c r="I164" s="2">
         <f>SUM(H164:H165)</f>
-        <v>-9834.02390735396</v>
+        <v>-10448.0873704515</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>13</v>
@@ -7211,23 +7196,23 @@
         <v>181</v>
       </c>
       <c r="C165" s="2">
-        <v>185957662613</v>
+        <v>8960000</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="4">
-        <f t="shared" si="9"/>
-        <v>-185957662613</v>
+        <f t="shared" si="6"/>
+        <v>-8960000</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G165" s="2">
-        <v>1.79623631885016e-9</v>
+        <v>5.00097511664676e-5</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="11"/>
-        <v>-334.023907353955</v>
+        <f t="shared" si="8"/>
+        <v>-448.08737045155</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -7241,27 +7226,27 @@
         <v>12</v>
       </c>
       <c r="C166" s="2">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="4">
-        <f t="shared" si="9"/>
-        <v>-10000</v>
+        <f t="shared" si="6"/>
+        <v>-9500</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="11"/>
-        <v>-10000</v>
+        <f t="shared" si="8"/>
+        <v>-9500</v>
       </c>
       <c r="I166" s="2">
         <f>SUM(H166:H167)</f>
-        <v>-10403.2008411116</v>
+        <v>-294604.909242994</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>13</v>
@@ -7276,23 +7261,23 @@
         <v>183</v>
       </c>
       <c r="C167" s="2">
-        <v>8960000</v>
+        <v>169596461530</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="4">
-        <f t="shared" si="9"/>
-        <v>-8960000</v>
+        <f t="shared" si="6"/>
+        <v>-169596461530</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G167" s="2">
-        <v>4.5000093874067e-5</v>
+        <v>1.68107817032823e-6</v>
       </c>
       <c r="H167" s="4">
-        <f t="shared" si="11"/>
-        <v>-403.20084111164</v>
+        <f t="shared" si="8"/>
+        <v>-285104.909242994</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -7310,23 +7295,23 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G168" s="2">
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I168" s="2">
         <f>SUM(H168:H169)</f>
-        <v>-138247.075769998</v>
+        <v>-10210.1674867893</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>13</v>
@@ -7341,23 +7326,23 @@
         <v>185</v>
       </c>
       <c r="C169" s="2">
-        <v>169596461530</v>
+        <v>15131855</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="4">
-        <f t="shared" si="9"/>
-        <v>-169596461530</v>
+        <f t="shared" si="6"/>
+        <v>-15131855</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G169" s="2">
-        <v>7.5913774738292e-7</v>
+        <v>4.69319516205567e-5</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="11"/>
-        <v>-128747.075769998</v>
+        <f t="shared" si="8"/>
+        <v>-710.167486789279</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -7375,29 +7360,29 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G170" s="2">
         <v>1</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I170" s="2">
         <f>SUM(H170:H171)</f>
-        <v>-11608.8319329831</v>
+        <v>-12080.442110097</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7406,23 +7391,23 @@
         <v>187</v>
       </c>
       <c r="C171" s="2">
-        <v>15131855</v>
+        <v>1974600000000</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4">
-        <f t="shared" si="9"/>
-        <v>-15131855</v>
+        <f t="shared" si="6"/>
+        <v>-1974600000000</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G171" s="2">
-        <v>0.000139363741787318</v>
+        <v>1.30681763906461e-9</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="11"/>
-        <v>-2108.83193298314</v>
+        <f t="shared" si="8"/>
+        <v>-2580.44211009698</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -7440,23 +7425,23 @@
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G172" s="2">
         <v>1</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I172" s="2">
         <f>SUM(H172:H173)</f>
-        <v>-11921.6794603668</v>
+        <v>-10200.5978287324</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>13</v>
@@ -7471,23 +7456,23 @@
         <v>189</v>
       </c>
       <c r="C173" s="2">
-        <v>1974600000000</v>
+        <v>6500</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4">
-        <f t="shared" si="9"/>
-        <v>-1974600000000</v>
+        <f t="shared" si="6"/>
+        <v>-6500</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G173" s="2">
-        <v>1.22641520326488e-9</v>
+        <v>0.107784281343447</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="11"/>
-        <v>-2421.67946036683</v>
+        <f t="shared" si="8"/>
+        <v>-700.597828732403</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -7505,29 +7490,29 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4">
-        <f t="shared" ref="E174:E237" si="12">D174-C174</f>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" ref="F174:F237" si="13">E174/C174</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G174" s="2">
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" ref="H174:H237" si="14">G174*E174</f>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I174" s="2">
         <f>SUM(H174:H175)</f>
-        <v>-10266.6682689688</v>
+        <v>-9955.51012651255</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7536,23 +7521,23 @@
         <v>191</v>
       </c>
       <c r="C175" s="2">
-        <v>6500</v>
+        <v>595000</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4">
-        <f t="shared" si="12"/>
-        <v>-6500</v>
+        <f t="shared" si="6"/>
+        <v>-595000</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G175" s="2">
-        <v>0.117948964456737</v>
+        <v>0.000765563237836225</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="14"/>
-        <v>-766.66826896879</v>
+        <f t="shared" si="8"/>
+        <v>-455.510126512554</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -7570,29 +7555,29 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G176" s="2">
         <v>1</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I176" s="2">
         <f>SUM(H176:H177)</f>
-        <v>-10040.147855902</v>
+        <v>-10382.4064786503</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7601,23 +7586,23 @@
         <v>193</v>
       </c>
       <c r="C177" s="2">
-        <v>595000</v>
+        <v>137478</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4">
-        <f t="shared" si="12"/>
-        <v>-595000</v>
+        <f t="shared" si="6"/>
+        <v>-137478</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G177" s="2">
-        <v>0.000907811522524401</v>
+        <v>0.00641852862749196</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="14"/>
-        <v>-540.147855902019</v>
+        <f t="shared" si="8"/>
+        <v>-882.40647865034</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -7635,29 +7620,29 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F178" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I178" s="2">
         <f>SUM(H178:H179)</f>
-        <v>-10165.0079383343</v>
+        <v>-10675.889111434</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -7666,23 +7651,23 @@
         <v>195</v>
       </c>
       <c r="C179" s="2">
-        <v>137478</v>
+        <v>28300</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="4">
-        <f t="shared" si="12"/>
-        <v>-137478</v>
+        <f t="shared" si="6"/>
+        <v>-28300</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G179" s="2">
-        <v>0.00483719532095537</v>
+        <v>0.0415508519941331</v>
       </c>
       <c r="H179" s="4">
-        <f t="shared" si="14"/>
-        <v>-665.007938334302</v>
+        <f t="shared" si="8"/>
+        <v>-1175.88911143397</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -7700,29 +7685,29 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
       </c>
       <c r="H180" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I180" s="2">
         <f>SUM(H180:H181)</f>
-        <v>-10841.5301127409</v>
+        <v>-9955.98058443064</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7731,23 +7716,23 @@
         <v>197</v>
       </c>
       <c r="C181" s="2">
-        <v>28300</v>
+        <v>1259351</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="4">
-        <f t="shared" si="12"/>
-        <v>-28300</v>
+        <f t="shared" si="6"/>
+        <v>-1259351</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G181" s="2">
-        <v>0.0474038909095731</v>
+        <v>0.000362075850521931</v>
       </c>
       <c r="H181" s="4">
-        <f t="shared" si="14"/>
-        <v>-1341.53011274092</v>
+        <f t="shared" si="8"/>
+        <v>-455.980584430644</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -7765,23 +7750,23 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G182" s="2">
         <v>1</v>
       </c>
       <c r="H182" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I182" s="2">
         <f>SUM(H182:H183)</f>
-        <v>-9957.0165386387</v>
+        <v>-9623.47597600055</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>13</v>
@@ -7796,23 +7781,23 @@
         <v>199</v>
       </c>
       <c r="C183" s="2">
-        <v>1259351</v>
+        <v>9790000000</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="4">
-        <f t="shared" si="12"/>
-        <v>-1259351</v>
+        <f t="shared" si="6"/>
+        <v>-9790000000</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G183" s="2">
-        <v>0.000362898460110563</v>
+        <v>1.26124592441831e-8</v>
       </c>
       <c r="H183" s="4">
-        <f t="shared" si="14"/>
-        <v>-457.016538638698</v>
+        <f t="shared" si="8"/>
+        <v>-123.475976000553</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -7830,29 +7815,29 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G184" s="2">
         <v>1</v>
       </c>
       <c r="H184" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I184" s="2">
         <f>SUM(H184:H185)</f>
-        <v>-9810.56881787327</v>
+        <v>-10097.1343365094</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -7861,23 +7846,23 @@
         <v>201</v>
       </c>
       <c r="C185" s="2">
-        <v>9790000000</v>
+        <v>218335420000000</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="4">
-        <f t="shared" si="12"/>
-        <v>-9790000000</v>
+        <f t="shared" si="6"/>
+        <v>-218335420000000</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G185" s="2">
-        <v>3.17230661770451e-8</v>
+        <v>2.73494028824731e-12</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" si="14"/>
-        <v>-310.568817873272</v>
+        <f t="shared" si="8"/>
+        <v>-597.134336509398</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -7895,29 +7880,29 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G186" s="2">
         <v>1</v>
       </c>
       <c r="H186" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I186" s="2">
         <f>SUM(H186:H187)</f>
-        <v>-10098.4909816162</v>
+        <v>-10889.3223305109</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -7926,23 +7911,23 @@
         <v>203</v>
       </c>
       <c r="C187" s="2">
-        <v>218335420000000</v>
+        <v>1273293530953</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="4">
-        <f t="shared" si="12"/>
-        <v>-218335420000000</v>
+        <f t="shared" si="6"/>
+        <v>-1273293530953</v>
       </c>
       <c r="F187" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G187" s="2">
-        <v>2.74115387057324e-12</v>
+        <v>1.09112494231479e-9</v>
       </c>
       <c r="H187" s="4">
-        <f t="shared" si="14"/>
-        <v>-598.490981616234</v>
+        <f t="shared" si="8"/>
+        <v>-1389.32233051089</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -7960,23 +7945,23 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G188" s="2">
         <v>1</v>
       </c>
       <c r="H188" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I188" s="2">
         <f>SUM(H188:H189)</f>
-        <v>-11087.9886080005</v>
+        <v>-11038.9976463233</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>13</v>
@@ -7991,23 +7976,23 @@
         <v>205</v>
       </c>
       <c r="C189" s="2">
-        <v>1273293530953</v>
+        <v>2.37e+16</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="4">
-        <f t="shared" si="12"/>
-        <v>-1273293530953</v>
+        <f t="shared" si="6"/>
+        <v>-2.37e+16</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G189" s="2">
-        <v>1.24715045619685e-9</v>
+        <v>6.49366095495046e-14</v>
       </c>
       <c r="H189" s="4">
-        <f t="shared" si="14"/>
-        <v>-1587.98860800053</v>
+        <f t="shared" si="8"/>
+        <v>-1538.99764632326</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -8025,29 +8010,29 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>-9500</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G190" s="2">
         <v>1</v>
       </c>
       <c r="H190" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>-9500</v>
       </c>
       <c r="I190" s="2">
         <f>SUM(H190:H191)</f>
-        <v>-10920.5846829869</v>
+        <v>-11273.3526651654</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8056,23 +8041,23 @@
         <v>207</v>
       </c>
       <c r="C191" s="2">
-        <v>2.37e+16</v>
+        <v>185254902.18</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="4">
-        <f t="shared" si="12"/>
-        <v>-2.37e+16</v>
+        <f t="shared" si="6"/>
+        <v>-185254902.18</v>
       </c>
       <c r="F191" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="G191" s="2">
-        <v>5.99402819825703e-14</v>
+        <v>9.57250061562405e-6</v>
       </c>
       <c r="H191" s="4">
-        <f t="shared" si="14"/>
-        <v>-1420.58468298692</v>
+        <f t="shared" si="8"/>
+        <v>-1773.35266516542</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -8090,54 +8075,54 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E192:E251" si="9">D192-C192</f>
         <v>-9500</v>
       </c>
       <c r="F192" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F192:F251" si="10">E192/C192</f>
         <v>-1</v>
       </c>
       <c r="G192" s="2">
         <v>1</v>
       </c>
       <c r="H192" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H192:H251" si="11">G192*E192</f>
         <v>-9500</v>
       </c>
       <c r="I192" s="2">
         <f>SUM(H192:H193)</f>
-        <v>-10043.0730952342</v>
+        <v>-11511.4719811815</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
       <c r="B193" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C193" s="2">
-        <v>185254902.18</v>
+        <v>434000000</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="4">
-        <f t="shared" si="12"/>
-        <v>-185254902.18</v>
+        <f t="shared" si="9"/>
+        <v>-434000000</v>
       </c>
       <c r="F193" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G193" s="2">
-        <v>2.93149109061896e-6</v>
+        <v>4.63472806723843e-6</v>
       </c>
       <c r="H193" s="4">
-        <f t="shared" si="14"/>
-        <v>-543.073095234157</v>
+        <f t="shared" si="11"/>
+        <v>-2011.47198118148</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -8145,7 +8130,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
@@ -8155,29 +8140,29 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F194" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G194" s="2">
         <v>1</v>
       </c>
       <c r="H194" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I194" s="2">
         <f>SUM(H194:H195)</f>
-        <v>-10903.0118978905</v>
+        <v>-9506.13709503692</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8186,23 +8171,23 @@
         <v>212</v>
       </c>
       <c r="C195" s="2">
-        <v>434000000</v>
+        <v>83200</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="4">
-        <f t="shared" si="12"/>
-        <v>-434000000</v>
+        <f t="shared" si="9"/>
+        <v>-83200</v>
       </c>
       <c r="F195" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G195" s="2">
-        <v>3.23274630850357e-6</v>
+        <v>7.37631615014271e-5</v>
       </c>
       <c r="H195" s="4">
-        <f t="shared" si="14"/>
-        <v>-1403.01189789055</v>
+        <f t="shared" si="11"/>
+        <v>-6.13709503691874</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -8220,23 +8205,23 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F196" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G196" s="2">
         <v>1</v>
       </c>
       <c r="H196" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I196" s="2">
         <f>SUM(H196:H197)</f>
-        <v>-9865.73237784401</v>
+        <v>-10687.1690190171</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>13</v>
@@ -8251,23 +8236,23 @@
         <v>214</v>
       </c>
       <c r="C197" s="2">
-        <v>83200</v>
+        <v>2410000</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="4">
-        <f t="shared" si="12"/>
-        <v>-83200</v>
+        <f t="shared" si="9"/>
+        <v>-2410000</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G197" s="2">
-        <v>0.00439582184908668</v>
+        <v>0.000492601252704172</v>
       </c>
       <c r="H197" s="4">
-        <f t="shared" si="14"/>
-        <v>-365.732377844012</v>
+        <f t="shared" si="11"/>
+        <v>-1187.16901901705</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
@@ -8285,23 +8270,23 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G198" s="2">
         <v>1</v>
       </c>
       <c r="H198" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I198" s="2">
         <f>SUM(H198:H199)</f>
-        <v>-10689.8661793412</v>
+        <v>-11773.4944689662</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>13</v>
@@ -8316,23 +8301,23 @@
         <v>216</v>
       </c>
       <c r="C199" s="2">
-        <v>2410000</v>
+        <v>29499098500000</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="4">
-        <f t="shared" si="12"/>
-        <v>-2410000</v>
+        <f t="shared" si="9"/>
+        <v>-29499098500000</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G199" s="2">
-        <v>0.000493720406365657</v>
+        <v>7.70699643233588e-11</v>
       </c>
       <c r="H199" s="4">
-        <f t="shared" si="14"/>
-        <v>-1189.86617934123</v>
+        <f t="shared" si="11"/>
+        <v>-2273.49446896625</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -8346,27 +8331,27 @@
         <v>12</v>
       </c>
       <c r="C200" s="2">
-        <v>9500</v>
+        <v>28582</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="4">
-        <f t="shared" si="12"/>
-        <v>-9500</v>
+        <f t="shared" si="9"/>
+        <v>-28582</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G200" s="2">
         <v>1</v>
       </c>
       <c r="H200" s="4">
-        <f t="shared" si="14"/>
-        <v>-9500</v>
+        <f t="shared" si="11"/>
+        <v>-28582</v>
       </c>
       <c r="I200" s="2">
         <f>SUM(H200:H201)</f>
-        <v>-11450.5495743996</v>
+        <v>-30129.1241700202</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>13</v>
@@ -8381,23 +8366,23 @@
         <v>218</v>
       </c>
       <c r="C201" s="2">
-        <v>29499098500000</v>
+        <v>235331477149490</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="4">
-        <f t="shared" si="12"/>
-        <v>-29499098500000</v>
+        <f t="shared" si="9"/>
+        <v>-235331477149490</v>
       </c>
       <c r="F201" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G201" s="2">
-        <v>6.61223452099595e-11</v>
+        <v>6.57423387963278e-12</v>
       </c>
       <c r="H201" s="4">
-        <f t="shared" si="14"/>
-        <v>-1950.5495743996</v>
+        <f t="shared" si="11"/>
+        <v>-1547.1241700202</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -8411,33 +8396,33 @@
         <v>12</v>
       </c>
       <c r="C202" s="2">
-        <v>28582</v>
+        <v>9500</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="4">
-        <f t="shared" si="12"/>
-        <v>-28582</v>
+        <f t="shared" si="9"/>
+        <v>-9500</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G202" s="2">
         <v>1</v>
       </c>
       <c r="H202" s="4">
-        <f t="shared" si="14"/>
-        <v>-28582</v>
+        <f t="shared" si="11"/>
+        <v>-9500</v>
       </c>
       <c r="I202" s="2">
         <f>SUM(H202:H203)</f>
-        <v>-29854.9347923095</v>
+        <v>-17231.2118837465</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -8446,23 +8431,23 @@
         <v>220</v>
       </c>
       <c r="C203" s="2">
-        <v>235331477149490</v>
+        <v>126833</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="4">
-        <f t="shared" si="12"/>
-        <v>-235331477149490</v>
+        <f t="shared" si="9"/>
+        <v>-126833</v>
       </c>
       <c r="F203" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G203" s="2">
-        <v>5.40911401962967e-12</v>
+        <v>0.060955838651979</v>
       </c>
       <c r="H203" s="4">
-        <f t="shared" si="14"/>
-        <v>-1272.93479230947</v>
+        <f t="shared" si="11"/>
+        <v>-7731.21188374645</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -8480,29 +8465,29 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F204" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G204" s="2">
         <v>1</v>
       </c>
       <c r="H204" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I204" s="2">
         <f>SUM(H204:H205)</f>
-        <v>-12138.1319033701</v>
+        <v>-11624.6032613412</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -8511,23 +8496,23 @@
         <v>222</v>
       </c>
       <c r="C205" s="2">
-        <v>126833</v>
+        <v>59560</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="4">
-        <f t="shared" si="12"/>
-        <v>-126833</v>
+        <f t="shared" si="9"/>
+        <v>-59560</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G205" s="2">
-        <v>0.0208000433906799</v>
+        <v>0.0356716464295027</v>
       </c>
       <c r="H205" s="4">
-        <f t="shared" si="14"/>
-        <v>-2638.1319033701</v>
+        <f t="shared" si="11"/>
+        <v>-2124.60326134118</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
@@ -8545,23 +8530,23 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G206" s="2">
         <v>1</v>
       </c>
       <c r="H206" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I206" s="2">
         <f>SUM(H206:H207)</f>
-        <v>-11614.927238328</v>
+        <v>-9669.02028811213</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>13</v>
@@ -8576,23 +8561,23 @@
         <v>224</v>
       </c>
       <c r="C207" s="2">
-        <v>59560</v>
+        <v>82500000000000</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="4">
-        <f t="shared" si="12"/>
-        <v>-59560</v>
+        <f t="shared" si="9"/>
+        <v>-82500000000000</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G207" s="2">
-        <v>0.035509188017595</v>
+        <v>2.04873076499553e-12</v>
       </c>
       <c r="H207" s="4">
-        <f t="shared" si="14"/>
-        <v>-2114.92723832796</v>
+        <f t="shared" si="11"/>
+        <v>-169.020288112131</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -8610,23 +8595,23 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G208" s="2">
         <v>1</v>
       </c>
       <c r="H208" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I208" s="2">
         <f>SUM(H208:H209)</f>
-        <v>-9669.4042897225</v>
+        <v>-9601.40605789364</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>13</v>
@@ -8641,23 +8626,23 @@
         <v>226</v>
       </c>
       <c r="C209" s="2">
-        <v>82500000000000</v>
+        <v>905000</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="4">
-        <f t="shared" si="12"/>
-        <v>-82500000000000</v>
+        <f t="shared" si="9"/>
+        <v>-905000</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G209" s="2">
-        <v>2.05338532996964e-12</v>
+        <v>0.000112050892700157</v>
       </c>
       <c r="H209" s="4">
-        <f t="shared" si="14"/>
-        <v>-169.404289722495</v>
+        <f t="shared" si="11"/>
+        <v>-101.406057893642</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
@@ -8675,54 +8660,54 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G210" s="2">
         <v>1</v>
       </c>
       <c r="H210" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I210" s="2">
         <f>SUM(H210:H211)</f>
-        <v>-9601.63644496709</v>
+        <v>-10123.2952265512</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
       <c r="B211" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C211" s="2">
-        <v>905000</v>
+        <v>18</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="4">
-        <f t="shared" si="12"/>
-        <v>-905000</v>
+        <f t="shared" si="9"/>
+        <v>-18</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G211" s="2">
-        <v>0.000112305464052036</v>
+        <v>34.6275125861762</v>
       </c>
       <c r="H211" s="4">
-        <f t="shared" si="14"/>
-        <v>-101.636444967093</v>
+        <f t="shared" si="11"/>
+        <v>-623.295226551172</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
@@ -8730,39 +8715,39 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C212" s="2">
-        <v>9500</v>
+        <v>29405</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="4">
-        <f t="shared" si="12"/>
-        <v>-9500</v>
+        <f t="shared" si="9"/>
+        <v>-29405</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G212" s="2">
         <v>1</v>
       </c>
       <c r="H212" s="4">
-        <f t="shared" si="14"/>
-        <v>-9500</v>
+        <f t="shared" si="11"/>
+        <v>-29405</v>
       </c>
       <c r="I212" s="2">
         <f>SUM(H212:H213)</f>
-        <v>-9500</v>
+        <v>-34399.7278836366</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -8771,23 +8756,23 @@
         <v>231</v>
       </c>
       <c r="C213" s="2">
-        <v>18</v>
+        <v>98386000</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="4">
-        <f t="shared" si="12"/>
-        <v>-18</v>
+        <f t="shared" si="9"/>
+        <v>-98386000</v>
       </c>
       <c r="F213" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G213" s="2">
-        <v>0</v>
+        <v>5.07666526094833e-5</v>
       </c>
       <c r="H213" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-4994.72788363662</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -8801,33 +8786,33 @@
         <v>12</v>
       </c>
       <c r="C214" s="2">
-        <v>29405</v>
+        <v>9500</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="4">
-        <f t="shared" si="12"/>
-        <v>-29405</v>
+        <f t="shared" si="9"/>
+        <v>-9500</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G214" s="2">
         <v>1</v>
       </c>
       <c r="H214" s="4">
-        <f t="shared" si="14"/>
-        <v>-29405</v>
+        <f t="shared" si="11"/>
+        <v>-9500</v>
       </c>
       <c r="I214" s="2">
         <f>SUM(H214:H215)</f>
-        <v>-34971.0397423669</v>
+        <v>-12467.9952068657</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -8836,23 +8821,23 @@
         <v>233</v>
       </c>
       <c r="C215" s="2">
-        <v>98386000</v>
+        <v>146417000</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="4">
-        <f t="shared" si="12"/>
-        <v>-98386000</v>
+        <f t="shared" si="9"/>
+        <v>-146417000</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G215" s="2">
-        <v>5.65734936105429e-5</v>
+        <v>2.0270837449652e-5</v>
       </c>
       <c r="H215" s="4">
-        <f t="shared" si="14"/>
-        <v>-5566.03974236687</v>
+        <f t="shared" si="11"/>
+        <v>-2967.9952068657</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -8870,29 +8855,29 @@
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G216" s="2">
         <v>1</v>
       </c>
       <c r="H216" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I216" s="2">
         <f>SUM(H216:H217)</f>
-        <v>-11354.1467617135</v>
+        <v>-13094.4006218601</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -8901,23 +8886,23 @@
         <v>235</v>
       </c>
       <c r="C217" s="2">
-        <v>146417000</v>
+        <v>94800000000000</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="4">
-        <f t="shared" si="12"/>
-        <v>-146417000</v>
+        <f t="shared" si="9"/>
+        <v>-94800000000000</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G217" s="2">
-        <v>1.26634664124625e-5</v>
+        <v>3.79156183740518e-11</v>
       </c>
       <c r="H217" s="4">
-        <f t="shared" si="14"/>
-        <v>-1854.14676171352</v>
+        <f t="shared" si="11"/>
+        <v>-3594.40062186011</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -8935,29 +8920,29 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G218" s="2">
         <v>1</v>
       </c>
       <c r="H218" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I218" s="2">
         <f>SUM(H218:H219)</f>
-        <v>-19678.912195088</v>
+        <v>-10066.6842626888</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -8966,23 +8951,23 @@
         <v>237</v>
       </c>
       <c r="C219" s="2">
-        <v>94800000000000</v>
+        <v>1183000</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="4">
-        <f t="shared" si="12"/>
-        <v>-94800000000000</v>
+        <f t="shared" si="9"/>
+        <v>-1183000</v>
       </c>
       <c r="F219" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G219" s="2">
-        <v>1.07372491509367e-10</v>
+        <v>0.000479023045383615</v>
       </c>
       <c r="H219" s="4">
-        <f t="shared" si="14"/>
-        <v>-10178.912195088</v>
+        <f t="shared" si="11"/>
+        <v>-566.684262688817</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -9000,54 +8985,54 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F220" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G220" s="2">
         <v>1</v>
       </c>
       <c r="H220" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I220" s="2">
         <f>SUM(H220:H221)</f>
-        <v>-10067.971727477</v>
+        <v>-10485.224188815</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
       <c r="B221" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C221" s="2">
-        <v>1183000</v>
+        <v>9500</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="4">
-        <f t="shared" si="12"/>
-        <v>-1183000</v>
+        <f t="shared" si="9"/>
+        <v>-9500</v>
       </c>
       <c r="F221" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G221" s="2">
-        <v>0.000480111350360985</v>
+        <v>0.103707809348948</v>
       </c>
       <c r="H221" s="4">
-        <f t="shared" si="14"/>
-        <v>-567.971727477045</v>
+        <f t="shared" si="11"/>
+        <v>-985.224188815006</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -9055,7 +9040,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>12</v>
@@ -9065,29 +9050,29 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F222" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G222" s="2">
         <v>1</v>
       </c>
       <c r="H222" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I222" s="2">
         <f>SUM(H222:H223)</f>
-        <v>-10847.1462782377</v>
+        <v>-9727.61492161533</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9096,23 +9081,23 @@
         <v>242</v>
       </c>
       <c r="C223" s="2">
-        <v>9500</v>
+        <v>6995223591511.03</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="4">
-        <f t="shared" si="12"/>
-        <v>-9500</v>
+        <f t="shared" si="9"/>
+        <v>-6995223591511.03</v>
       </c>
       <c r="F223" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G223" s="2">
-        <v>0.141804871393438</v>
+        <v>3.25386199079535e-11</v>
       </c>
       <c r="H223" s="4">
-        <f t="shared" si="14"/>
-        <v>-1347.14627823766</v>
+        <f t="shared" si="11"/>
+        <v>-227.614921615327</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
@@ -9130,23 +9115,23 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F224" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G224" s="2">
         <v>1</v>
       </c>
       <c r="H224" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I224" s="2">
         <f>SUM(H224:H225)</f>
-        <v>-11697.5063257623</v>
+        <v>-27424.5411130114</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>13</v>
@@ -9161,23 +9146,23 @@
         <v>244</v>
       </c>
       <c r="C225" s="2">
-        <v>6995223591511.03</v>
+        <v>291370</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="4">
-        <f t="shared" si="12"/>
-        <v>-6995223591511.03</v>
+        <f t="shared" si="9"/>
+        <v>-291370</v>
       </c>
       <c r="F225" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G225" s="2">
-        <v>3.14143829287893e-10</v>
+        <v>0.0615181422693186</v>
       </c>
       <c r="H225" s="4">
-        <f t="shared" si="14"/>
-        <v>-2197.50632576228</v>
+        <f t="shared" si="11"/>
+        <v>-17924.5411130114</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
@@ -9195,23 +9180,23 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F226" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G226" s="2">
         <v>1</v>
       </c>
       <c r="H226" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I226" s="2">
         <f>SUM(H226:H227)</f>
-        <v>-22620.5176227564</v>
+        <v>-9500</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>13</v>
@@ -9226,23 +9211,23 @@
         <v>246</v>
       </c>
       <c r="C227" s="2">
-        <v>291370</v>
+        <v>4870000000</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="4">
-        <f t="shared" si="12"/>
-        <v>-291370</v>
+        <f t="shared" si="9"/>
+        <v>-4870000000</v>
       </c>
       <c r="F227" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G227" s="2">
-        <v>0.0450304342339857</v>
+        <v>0</v>
       </c>
       <c r="H227" s="4">
-        <f t="shared" si="14"/>
-        <v>-13120.5176227564</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
@@ -9260,23 +9245,23 @@
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F228" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G228" s="2">
         <v>1</v>
       </c>
       <c r="H228" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I228" s="2">
         <f>SUM(H228:H229)</f>
-        <v>-9664.88185652698</v>
+        <v>-10524.4444975738</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>13</v>
@@ -9291,23 +9276,23 @@
         <v>248</v>
       </c>
       <c r="C229" s="2">
-        <v>4870000000</v>
+        <v>2351000</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="4">
-        <f t="shared" si="12"/>
-        <v>-4870000000</v>
+        <f t="shared" si="9"/>
+        <v>-2351000</v>
       </c>
       <c r="F229" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G229" s="2">
-        <v>3.38566440507143e-8</v>
+        <v>0.000435748403902097</v>
       </c>
       <c r="H229" s="4">
-        <f t="shared" si="14"/>
-        <v>-164.881856526979</v>
+        <f t="shared" si="11"/>
+        <v>-1024.44449757383</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -9325,29 +9310,29 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F230" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G230" s="2">
         <v>1</v>
       </c>
       <c r="H230" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I230" s="2">
         <f>SUM(H230:H231)</f>
-        <v>-10914.1799501478</v>
+        <v>-10400.6333381005</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -9356,23 +9341,23 @@
         <v>250</v>
       </c>
       <c r="C231" s="2">
-        <v>2351000</v>
+        <v>115000000</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="4">
-        <f t="shared" si="12"/>
-        <v>-2351000</v>
+        <f t="shared" si="9"/>
+        <v>-115000000</v>
       </c>
       <c r="F231" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G231" s="2">
-        <v>0.00060152273506925</v>
+        <v>7.83159424435237e-6</v>
       </c>
       <c r="H231" s="4">
-        <f t="shared" si="14"/>
-        <v>-1414.17995014781</v>
+        <f t="shared" si="11"/>
+        <v>-900.633338100522</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -9390,29 +9375,29 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="4">
-        <f t="shared" ref="E232:E253" si="15">D232-C232</f>
+        <f t="shared" si="9"/>
         <v>-9500</v>
       </c>
       <c r="F232" s="5">
-        <f t="shared" ref="F232:F253" si="16">E232/C232</f>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G232" s="2">
         <v>1</v>
       </c>
       <c r="H232" s="4">
-        <f t="shared" ref="H232:H253" si="17">G232*E232</f>
+        <f t="shared" si="11"/>
         <v>-9500</v>
       </c>
       <c r="I232" s="2">
         <f>SUM(H232:H233)</f>
-        <v>-10071.8357728707</v>
+        <v>-18650.1988675</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -9421,23 +9406,23 @@
         <v>252</v>
       </c>
       <c r="C233" s="2">
-        <v>115000000</v>
+        <v>390000</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="4">
-        <f t="shared" si="15"/>
-        <v>-115000000</v>
+        <f t="shared" si="9"/>
+        <v>-390000</v>
       </c>
       <c r="F233" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G233" s="2">
-        <v>4.97248498148447e-6</v>
+        <v>0.023462048378205</v>
       </c>
       <c r="H233" s="4">
-        <f t="shared" si="17"/>
-        <v>-571.835772870714</v>
+        <f t="shared" si="11"/>
+        <v>-9150.19886749995</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -9450,34 +9435,34 @@
       <c r="B234" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="2">
-        <v>9500</v>
+      <c r="C234" s="6">
+        <v>18000</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="4">
-        <f t="shared" si="15"/>
-        <v>-9500</v>
+        <f t="shared" si="9"/>
+        <v>-18000</v>
       </c>
       <c r="F234" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G234" s="2">
         <v>1</v>
       </c>
       <c r="H234" s="4">
-        <f t="shared" si="17"/>
-        <v>-9500</v>
+        <f t="shared" si="11"/>
+        <v>-18000</v>
       </c>
       <c r="I234" s="2">
         <f>SUM(H234:H235)</f>
-        <v>-17691.8799824945</v>
+        <v>-18476.5967158324</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -9485,89 +9470,89 @@
       <c r="B235" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C235" s="2">
-        <v>390000</v>
+      <c r="C235" s="4">
+        <v>1209.6363346</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="4">
-        <f t="shared" si="15"/>
-        <v>-390000</v>
+        <f t="shared" si="9"/>
+        <v>-1209.6363346</v>
       </c>
       <c r="F235" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G235" s="2">
-        <v>0.0210048204679347</v>
+        <v>0.394</v>
       </c>
       <c r="H235" s="4">
-        <f t="shared" si="17"/>
-        <v>-8191.87998249453</v>
+        <f t="shared" si="11"/>
+        <v>-476.5967158324</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C236" s="6">
-        <v>18000</v>
-      </c>
-      <c r="D236" s="2"/>
+        <v>10000</v>
+      </c>
+      <c r="D236" s="6"/>
       <c r="E236" s="4">
-        <f t="shared" si="15"/>
-        <v>-18000</v>
+        <f t="shared" si="9"/>
+        <v>-10000</v>
       </c>
       <c r="F236" s="5">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G236" s="2">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G236" s="4">
         <v>1</v>
       </c>
       <c r="H236" s="4">
-        <f t="shared" si="17"/>
-        <v>-18000</v>
-      </c>
-      <c r="I236" s="2">
+        <f t="shared" si="11"/>
+        <v>-10000</v>
+      </c>
+      <c r="I236" s="4">
         <f>SUM(H236:H237)</f>
-        <v>-18939.5073895052</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K236" s="2" t="s">
+        <v>-23003.2616862826</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C237" s="4">
-        <v>1209.6363346</v>
-      </c>
-      <c r="D237" s="2"/>
+        <v>8100</v>
+      </c>
+      <c r="D237" s="4"/>
       <c r="E237" s="4">
-        <f t="shared" si="15"/>
-        <v>-1209.6363346</v>
+        <f t="shared" si="9"/>
+        <v>-8100</v>
       </c>
       <c r="F237" s="5">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G237" s="2">
-        <v>0.776685820880109</v>
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G237" s="4">
+        <v>1.60534094892378</v>
       </c>
       <c r="H237" s="4">
-        <f t="shared" si="17"/>
-        <v>-939.507389505207</v>
+        <f t="shared" si="11"/>
+        <v>-13003.2616862826</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -9585,54 +9570,54 @@
       </c>
       <c r="D238" s="6"/>
       <c r="E238" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
       <c r="F238" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G238" s="4">
         <v>1</v>
       </c>
       <c r="H238" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-10000</v>
       </c>
       <c r="I238" s="4">
         <f>SUM(H238:H239)</f>
-        <v>-18839.4387029648</v>
+        <v>-10000.0045606315</v>
       </c>
       <c r="J238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C239" s="4">
-        <v>8100</v>
+        <v>500</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4">
-        <f t="shared" si="15"/>
-        <v>-8100</v>
+        <f t="shared" si="9"/>
+        <v>-500</v>
       </c>
       <c r="F239" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G239" s="4">
-        <v>1.09128872876109</v>
+        <v>9.12126305203292e-6</v>
       </c>
       <c r="H239" s="4">
-        <f t="shared" si="17"/>
-        <v>-8839.43870296483</v>
+        <f t="shared" si="11"/>
+        <v>-0.00456063152601646</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -9640,7 +9625,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>12</v>
@@ -9650,29 +9635,29 @@
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
       <c r="F240" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G240" s="4">
         <v>1</v>
       </c>
       <c r="H240" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-10000</v>
       </c>
       <c r="I240" s="4">
         <f>SUM(H240:H241)</f>
-        <v>-12518.0341815939</v>
+        <v>-14196.5492707795</v>
       </c>
       <c r="J240" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -9681,23 +9666,23 @@
         <v>261</v>
       </c>
       <c r="C241" s="4">
-        <v>500</v>
+        <v>2280</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="4">
-        <f t="shared" si="15"/>
-        <v>-500</v>
+        <f t="shared" si="9"/>
+        <v>-2280</v>
       </c>
       <c r="F241" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G241" s="4">
-        <v>5.03606836318779</v>
+        <v>1.8405917854296</v>
       </c>
       <c r="H241" s="4">
-        <f t="shared" si="17"/>
-        <v>-2518.0341815939</v>
+        <f t="shared" si="11"/>
+        <v>-4196.54927077949</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -9715,29 +9700,29 @@
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
       <c r="F242" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G242" s="4">
         <v>1</v>
       </c>
       <c r="H242" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-10000</v>
       </c>
       <c r="I242" s="4">
         <f>SUM(H242:H243)</f>
-        <v>-18731.445500474</v>
+        <v>-12446.1902917865</v>
       </c>
       <c r="J242" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -9746,356 +9731,290 @@
         <v>263</v>
       </c>
       <c r="C243" s="4">
-        <v>2280</v>
+        <v>436140000000</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4">
-        <f t="shared" si="15"/>
-        <v>-2280</v>
+        <f t="shared" si="9"/>
+        <v>-436140000000</v>
       </c>
       <c r="F243" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G243" s="4">
-        <v>3.82958135985702</v>
+        <v>5.6087272247135e-9</v>
       </c>
       <c r="H243" s="4">
-        <f t="shared" si="17"/>
-        <v>-8731.445500474</v>
+        <f t="shared" si="11"/>
+        <v>-2446.19029178655</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B244" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C244" s="8">
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="6">
+        <v>9972.736151</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="4">
+        <f t="shared" si="9"/>
+        <v>-9972.736151</v>
+      </c>
+      <c r="F244" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G244" s="4">
+        <v>1</v>
+      </c>
+      <c r="H244" s="4">
+        <f t="shared" si="11"/>
+        <v>-9972.736151</v>
+      </c>
+      <c r="I244" s="4">
+        <f>SUM(H244:H245)</f>
+        <v>-17988.7748342416</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="3"/>
+      <c r="B245" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C245" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4">
+        <f t="shared" si="9"/>
+        <v>-1000000</v>
+      </c>
+      <c r="F245" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G245" s="4">
+        <v>0.00801603868324158</v>
+      </c>
+      <c r="H245" s="4">
+        <f t="shared" si="11"/>
+        <v>-8016.03868324158</v>
+      </c>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="6">
+        <v>5021</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="4">
+        <f t="shared" si="9"/>
+        <v>-5021</v>
+      </c>
+      <c r="F246" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G246" s="4">
+        <v>1</v>
+      </c>
+      <c r="H246" s="4">
+        <f t="shared" si="11"/>
+        <v>-5021</v>
+      </c>
+      <c r="I246" s="4">
+        <f>SUM(H246:H247)</f>
+        <v>-5672.85136332381</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K246" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="3"/>
+      <c r="B247" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C247" s="4">
+        <v>29402703</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4">
+        <f t="shared" si="9"/>
+        <v>-29402703</v>
+      </c>
+      <c r="F247" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G247" s="4">
+        <v>2.21697768169072e-5</v>
+      </c>
+      <c r="H247" s="4">
+        <f t="shared" si="11"/>
+        <v>-651.851363323808</v>
+      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="4">
+        <f t="shared" si="9"/>
+        <v>-5200</v>
+      </c>
+      <c r="F248" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G248" s="4">
+        <v>1</v>
+      </c>
+      <c r="H248" s="4">
+        <f t="shared" si="11"/>
+        <v>-5200</v>
+      </c>
+      <c r="I248" s="4">
+        <f>SUM(H248:H249)</f>
+        <v>-6264.82964291439</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K248" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4">
+        <f t="shared" si="9"/>
+        <v>-411990326748</v>
+      </c>
+      <c r="F249" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G249" s="4">
+        <v>2.58459865142831e-9</v>
+      </c>
+      <c r="H249" s="4">
+        <f t="shared" si="11"/>
+        <v>-1064.82964291439</v>
+      </c>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="6">
         <v>10000</v>
       </c>
-      <c r="D244" s="8"/>
-      <c r="E244" s="7">
-        <f t="shared" si="15"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="4">
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
-      <c r="F244" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G244" s="7">
-        <v>1</v>
-      </c>
-      <c r="H244" s="7">
-        <f t="shared" si="17"/>
+      <c r="F250" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G250" s="4">
+        <v>1</v>
+      </c>
+      <c r="H250" s="4">
+        <f t="shared" si="11"/>
         <v>-10000</v>
       </c>
-      <c r="I244" s="7">
-        <f>SUM(H244:H245)</f>
-        <v>-17587.3108125013</v>
-      </c>
-      <c r="J244" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K244" s="7" t="s">
+      <c r="I250" s="4">
+        <f>SUM(H250:H251)</f>
+        <v>-14815.9819522535</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C245" s="7">
-        <v>436140000000</v>
-      </c>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7">
-        <f t="shared" si="15"/>
-        <v>-436140000000</v>
-      </c>
-      <c r="F245" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G245" s="7">
-        <v>1.73965029864294e-8</v>
-      </c>
-      <c r="H245" s="7">
-        <f t="shared" si="17"/>
-        <v>-7587.31081250132</v>
-      </c>
-      <c r="I245" s="7"/>
-      <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" s="8">
-        <v>9972.736151</v>
-      </c>
-      <c r="D246" s="6"/>
-      <c r="E246" s="7">
-        <f t="shared" si="15"/>
-        <v>-9972.736151</v>
-      </c>
-      <c r="F246" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G246" s="7">
-        <v>1</v>
-      </c>
-      <c r="H246" s="7">
-        <f t="shared" si="17"/>
-        <v>-9972.736151</v>
-      </c>
-      <c r="I246" s="7">
-        <f t="shared" ref="I246:I250" si="18">SUM(H246:H247)</f>
-        <v>-9972.75354750299</v>
-      </c>
-      <c r="J246" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K246" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C247" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D247" s="4"/>
-      <c r="E247" s="7">
-        <f t="shared" si="15"/>
-        <v>-1000000</v>
-      </c>
-      <c r="F247" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G247" s="7">
-        <v>1.73965029864294e-8</v>
-      </c>
-      <c r="H247" s="7">
-        <f t="shared" si="17"/>
-        <v>-0.0173965029864294</v>
-      </c>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="A248" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="8">
-        <v>5021</v>
-      </c>
-      <c r="D248" s="6"/>
-      <c r="E248" s="7">
-        <f t="shared" si="15"/>
-        <v>-5021</v>
-      </c>
-      <c r="F248" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G248" s="7">
-        <v>1</v>
-      </c>
-      <c r="H248" s="7">
-        <f t="shared" si="17"/>
-        <v>-5021</v>
-      </c>
-      <c r="I248" s="7">
-        <f t="shared" si="18"/>
-        <v>-10304.6657291</v>
-      </c>
-      <c r="J248" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K248" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C249" s="7">
-        <v>29402703</v>
-      </c>
-      <c r="D249" s="4"/>
-      <c r="E249" s="7">
-        <f t="shared" si="15"/>
-        <v>-29402703</v>
-      </c>
-      <c r="F249" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G249" s="7">
-        <v>0.0001797</v>
-      </c>
-      <c r="H249" s="7">
-        <f t="shared" si="17"/>
-        <v>-5283.6657291</v>
-      </c>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" s="8">
-        <v>5200</v>
-      </c>
-      <c r="D250" s="6"/>
-      <c r="E250" s="7">
-        <f t="shared" si="15"/>
-        <v>-5200</v>
-      </c>
-      <c r="F250" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G250" s="7">
-        <v>1</v>
-      </c>
-      <c r="H250" s="7">
-        <f t="shared" si="17"/>
-        <v>-5200</v>
-      </c>
-      <c r="I250" s="7">
-        <f t="shared" si="18"/>
-        <v>-10028.5266294866</v>
-      </c>
-      <c r="J250" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K250" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C251" s="10" t="s">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="C251" s="4">
+        <v>8500000</v>
+      </c>
       <c r="D251" s="4"/>
-      <c r="E251" s="7">
-        <f t="shared" si="15"/>
-        <v>-411990326748</v>
-      </c>
-      <c r="F251" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G251" s="7">
-        <v>1.172e-8</v>
-      </c>
-      <c r="H251" s="7">
-        <f t="shared" si="17"/>
-        <v>-4828.52662948656</v>
-      </c>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C252" s="8">
-        <v>10000</v>
-      </c>
-      <c r="D252" s="6"/>
-      <c r="E252" s="7">
-        <f t="shared" si="15"/>
-        <v>-10000</v>
-      </c>
-      <c r="F252" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G252" s="7">
-        <v>1</v>
-      </c>
-      <c r="H252" s="7">
-        <f t="shared" si="17"/>
-        <v>-10000</v>
-      </c>
-      <c r="I252" s="7">
-        <f>SUM(H252:H253)</f>
-        <v>-10850</v>
-      </c>
-      <c r="J252" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K252" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="3"/>
-      <c r="B253" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C253" s="7">
-        <v>8500000</v>
-      </c>
-      <c r="D253" s="4"/>
-      <c r="E253" s="7">
-        <f t="shared" si="15"/>
+      <c r="E251" s="4">
+        <f t="shared" si="9"/>
         <v>-8500000</v>
       </c>
-      <c r="F253" s="9">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="G253" s="7">
-        <v>0.0001</v>
-      </c>
-      <c r="H253" s="7">
-        <f t="shared" si="17"/>
-        <v>-850</v>
-      </c>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
-      <c r="K253" s="7"/>
-    </row>
-    <row r="261" ht="16.8"/>
+      <c r="F251" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0.000566586112029823</v>
+      </c>
+      <c r="H251" s="4">
+        <f t="shared" si="11"/>
+        <v>-4815.9819522535</v>
+      </c>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="504">
+  <mergeCells count="500">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10221,7 +10140,6 @@
     <mergeCell ref="A246:A247"/>
     <mergeCell ref="A248:A249"/>
     <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -10347,7 +10265,6 @@
     <mergeCell ref="I246:I247"/>
     <mergeCell ref="I248:I249"/>
     <mergeCell ref="I250:I251"/>
-    <mergeCell ref="I252:I253"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -10473,7 +10390,6 @@
     <mergeCell ref="J246:J247"/>
     <mergeCell ref="J248:J249"/>
     <mergeCell ref="J250:J251"/>
-    <mergeCell ref="J252:J253"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -10599,10 +10515,9 @@
     <mergeCell ref="K246:K247"/>
     <mergeCell ref="K248:K249"/>
     <mergeCell ref="K250:K251"/>
-    <mergeCell ref="K252:K253"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A252" r:id="rId1" display="BScoop792@s.lbk.one"/>
+    <hyperlink ref="A250" r:id="rId1" display="BScoop792@s.lbk.one"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
